--- a/Lab_3/Segway_files/Outputs/output7.xlsx
+++ b/Lab_3/Segway_files/Outputs/output7.xlsx
@@ -409,28 +409,28 @@
     </row>
     <row r="2" spans="2:10">
       <c r="B2">
-        <v>463.7063146370029</v>
+        <v>10074.84807056839</v>
       </c>
       <c r="C2">
-        <v>797.5107418395286</v>
+        <v>14547.10847632283</v>
       </c>
       <c r="D2">
-        <v>-0.003029246398590438</v>
+        <v>0.005346626675077563</v>
       </c>
       <c r="E2">
-        <v>-1.025957972466335</v>
+        <v>-1.000097542533789</v>
       </c>
       <c r="F2">
-        <v>-0.005545660045653664</v>
+        <v>-0.005483570066881049</v>
       </c>
       <c r="G2">
-        <v>523.683</v>
+        <v>10003.81</v>
       </c>
       <c r="H2">
-        <v>799.9299999999999</v>
+        <v>14499.981</v>
       </c>
       <c r="I2">
-        <v>-0.00161</v>
+        <v>1.8e-06</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -438,1507 +438,1507 @@
     </row>
     <row r="3" spans="2:10">
       <c r="B3">
-        <v>482.1585702764465</v>
+        <v>10142.1890366041</v>
       </c>
       <c r="C3">
-        <v>821.9715786151132</v>
+        <v>14481.15848737445</v>
       </c>
       <c r="D3">
-        <v>-0.06859098046384834</v>
+        <v>-0.119511288150224</v>
       </c>
       <c r="E3">
-        <v>-0.9797988647653033</v>
+        <v>-0.9841045297096532</v>
       </c>
       <c r="F3">
-        <v>0.001288436381080932</v>
+        <v>0.01477027292337637</v>
       </c>
       <c r="G3">
-        <v>524.6595612343265</v>
+        <v>10013.61468749998</v>
       </c>
       <c r="H3">
-        <v>799.9284277350542</v>
+        <v>14499.98101764844</v>
       </c>
       <c r="I3">
-        <v>-0.005950277777777778</v>
+        <v>-0.007397964150943397</v>
       </c>
       <c r="J3">
-        <v>-0.06944444444444445</v>
+        <v>-0.1183962264150943</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4">
-        <v>462.6923017395423</v>
+        <v>10278.76958214521</v>
       </c>
       <c r="C4">
-        <v>774.3936154788125</v>
+        <v>14511.42049845624</v>
       </c>
       <c r="D4">
-        <v>-0.1437598324947961</v>
+        <v>-0.2381253105053369</v>
       </c>
       <c r="E4">
-        <v>-1.020365059099049</v>
+        <v>-1.031419931972696</v>
       </c>
       <c r="F4">
-        <v>-0.02339125898501794</v>
+        <v>-0.03544271591273715</v>
       </c>
       <c r="G4">
-        <v>526.6126516584465</v>
+        <v>10033.22352589312</v>
       </c>
       <c r="H4">
-        <v>799.9168061673483</v>
+        <v>14499.83594951843</v>
       </c>
       <c r="I4">
-        <v>-0.01463083333333333</v>
+        <v>-0.02219749245283019</v>
       </c>
       <c r="J4">
-        <v>-0.1388888888888889</v>
+        <v>-0.2367924528301887</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5">
-        <v>455.2707967479955</v>
+        <v>10049.6709877459</v>
       </c>
       <c r="C5">
-        <v>796.6482458098585</v>
+        <v>14840.3568406483</v>
       </c>
       <c r="D5">
-        <v>-0.2232159431738931</v>
+        <v>-0.3548040743262058</v>
       </c>
       <c r="E5">
-        <v>-0.9930326265945589</v>
+        <v>-0.9915718761030849</v>
       </c>
       <c r="F5">
-        <v>0.004421497573684631</v>
+        <v>-0.04870309082182731</v>
       </c>
       <c r="G5">
-        <v>529.5420255977059</v>
+        <v>10062.6303421147</v>
       </c>
       <c r="H5">
-        <v>799.8739439270463</v>
+        <v>14499.18308470537</v>
       </c>
       <c r="I5">
-        <v>-0.02765166666666667</v>
+        <v>-0.04439678490566037</v>
       </c>
       <c r="J5">
-        <v>-0.2083333333333333</v>
+        <v>-0.355188679245283</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6">
-        <v>507.4740046277264</v>
+        <v>10241.77275225824</v>
       </c>
       <c r="C6">
-        <v>765.4129528212354</v>
+        <v>14604.9601612805</v>
       </c>
       <c r="D6">
-        <v>-0.2757522386819635</v>
+        <v>-0.4825868938668967</v>
       </c>
       <c r="E6">
-        <v>-0.9741429241985526</v>
+        <v>-1.003084445535822</v>
       </c>
       <c r="F6">
-        <v>-0.02717313666900809</v>
+        <v>-0.03124018284332787</v>
       </c>
       <c r="G6">
-        <v>533.4467823048327</v>
+        <v>10101.81044692382</v>
       </c>
       <c r="H6">
-        <v>799.7659433684927</v>
+        <v>14497.44247024234</v>
       </c>
       <c r="I6">
-        <v>-0.04501277777777778</v>
+        <v>-0.07399584150943396</v>
       </c>
       <c r="J6">
-        <v>-0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7">
-        <v>467.339850676826</v>
+        <v>9732.039246272065</v>
       </c>
       <c r="C7">
-        <v>817.7383496107667</v>
+        <v>14565.53115456439</v>
       </c>
       <c r="D7">
-        <v>-0.3495990785976339</v>
+        <v>-0.5967020598633004</v>
       </c>
       <c r="E7">
-        <v>-1.023314868226164</v>
+        <v>-1.030741150150566</v>
       </c>
       <c r="F7">
-        <v>-0.08173082256400516</v>
+        <v>-0.1117568300380581</v>
       </c>
       <c r="G7">
-        <v>538.3246489843265</v>
+        <v>10150.69973456436</v>
       </c>
       <c r="H7">
-        <v>799.5462286278851</v>
+        <v>14493.81824917878</v>
       </c>
       <c r="I7">
-        <v>-0.06671416666666666</v>
+        <v>-0.1109946622641509</v>
       </c>
       <c r="J7">
-        <v>-0.3472222222222222</v>
+        <v>-0.5919811320754716</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8">
-        <v>471.9114606248356</v>
+        <v>10246.31831807879</v>
       </c>
       <c r="C8">
-        <v>790.244245742665</v>
+        <v>14970.42638072822</v>
       </c>
       <c r="D8">
-        <v>-0.4172507683133979</v>
+        <v>-0.7063319114101168</v>
       </c>
       <c r="E8">
-        <v>-1.019438244414923</v>
+        <v>-1.006449223925526</v>
       </c>
       <c r="F8">
-        <v>-0.103492924164677</v>
+        <v>-0.1739560006036219</v>
       </c>
       <c r="G8">
-        <v>544.1709894252679</v>
+        <v>10209.16585563529</v>
       </c>
       <c r="H8">
-        <v>799.1556152138318</v>
+        <v>14487.30204031665</v>
       </c>
       <c r="I8">
-        <v>-0.09275583333333333</v>
+        <v>-0.1553932471698113</v>
       </c>
       <c r="J8">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9">
-        <v>464.4722940270053</v>
+        <v>9904.162486847688</v>
       </c>
       <c r="C9">
-        <v>816.5821919378109</v>
+        <v>15000.5073726413</v>
       </c>
       <c r="D9">
-        <v>-0.4801100858544545</v>
+        <v>-0.8313106711595748</v>
       </c>
       <c r="E9">
-        <v>-0.9433558969862528</v>
+        <v>-0.9912162941857093</v>
       </c>
       <c r="F9">
-        <v>-0.1367108219359079</v>
+        <v>-0.1868836943970764</v>
       </c>
       <c r="G9">
-        <v>550.9775410147238</v>
+        <v>10276.9716938654</v>
       </c>
       <c r="H9">
-        <v>798.5224509665926</v>
+        <v>14476.67983463365</v>
       </c>
       <c r="I9">
-        <v>-0.1231377777777778</v>
+        <v>-0.2071915962264151</v>
       </c>
       <c r="J9">
-        <v>-0.4861111111111111</v>
+        <v>-0.8287735849056603</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10">
-        <v>479.6965258137353</v>
+        <v>10331.41600769438</v>
       </c>
       <c r="C10">
-        <v>798.1272493153916</v>
+        <v>15201.80548077089</v>
       </c>
       <c r="D10">
-        <v>-0.5604350679013455</v>
+        <v>-0.9488286320849449</v>
       </c>
       <c r="E10">
-        <v>-0.9606202428936275</v>
+        <v>-0.9696202116874004</v>
       </c>
       <c r="F10">
-        <v>-0.1713495212922824</v>
+        <v>-0.2699617184072526</v>
       </c>
       <c r="G10">
-        <v>558.7308856924396</v>
+        <v>10353.73161156724</v>
       </c>
       <c r="H10">
-        <v>797.5628663905732</v>
+        <v>14460.54427016701</v>
       </c>
       <c r="I10">
-        <v>-0.15786</v>
+        <v>-0.2663897094339622</v>
       </c>
       <c r="J10">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11">
-        <v>449.6732065442664</v>
+        <v>10305.76586566863</v>
       </c>
       <c r="C11">
-        <v>798.7063914954459</v>
+        <v>15238.88321283767</v>
       </c>
       <c r="D11">
-        <v>-0.5999231273610206</v>
+        <v>-1.038948143831127</v>
       </c>
       <c r="E11">
-        <v>-0.9860518292257955</v>
+        <v>-0.9331295779469888</v>
       </c>
       <c r="F11">
-        <v>-0.2008554045263536</v>
+        <v>-0.3221613852873523</v>
       </c>
       <c r="G11">
-        <v>567.0891934307476</v>
+        <v>10435.70834632348</v>
       </c>
       <c r="H11">
-        <v>796.2323534970222</v>
+        <v>14438.17485409832</v>
       </c>
       <c r="I11">
-        <v>-0.1954756944444445</v>
+        <v>-0.3305209494103774</v>
       </c>
       <c r="J11">
-        <v>-0.6018511111111111</v>
+        <v>-1.026099839622642</v>
       </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12">
-        <v>445.2119156247656</v>
+        <v>10015.32920765213</v>
       </c>
       <c r="C12">
-        <v>825.4969519620931</v>
+        <v>15565.17134018618</v>
       </c>
       <c r="D12">
-        <v>-0.6482615471959903</v>
+        <v>-1.101831754422369</v>
       </c>
       <c r="E12">
-        <v>-0.970164918135528</v>
+        <v>-0.9251279404780791</v>
       </c>
       <c r="F12">
-        <v>-0.1863777952155424</v>
+        <v>-0.3882871915660304</v>
       </c>
       <c r="G12">
-        <v>576.0301955871861</v>
+        <v>10522.26564047233</v>
       </c>
       <c r="H12">
-        <v>794.4619983770999</v>
+        <v>14408.47643708039</v>
       </c>
       <c r="I12">
-        <v>-0.2359848958333333</v>
+        <v>-0.3995853161556604</v>
       </c>
       <c r="J12">
-        <v>-0.6481472222222223</v>
+        <v>-1.105029867924528</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13">
-        <v>423.9093182854702</v>
+        <v>10327.3504928901</v>
       </c>
       <c r="C13">
-        <v>806.3171557589856</v>
+        <v>16134.86882362097</v>
       </c>
       <c r="D13">
-        <v>-0.694526189604792</v>
+        <v>-1.189127227624126</v>
       </c>
       <c r="E13">
-        <v>-0.9792298890936249</v>
+        <v>-0.8644241546879446</v>
       </c>
       <c r="F13">
-        <v>-0.2925446900831637</v>
+        <v>-0.4545091828426272</v>
       </c>
       <c r="G13">
-        <v>585.5251663909067</v>
+        <v>10612.58865413088</v>
       </c>
       <c r="H13">
-        <v>792.1787873422035</v>
+        <v>14370.33262249065</v>
       </c>
       <c r="I13">
-        <v>-0.2793875694444445</v>
+        <v>-0.4735828096698114</v>
       </c>
       <c r="J13">
-        <v>-0.6944427777777779</v>
+        <v>-1.183959896226415</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14">
-        <v>442.5337246671825</v>
+        <v>11255.09012815481</v>
       </c>
       <c r="C14">
-        <v>803.6106050871216</v>
+        <v>16942.62117770024</v>
       </c>
       <c r="D14">
-        <v>-0.738972451209002</v>
+        <v>-1.265601556667054</v>
       </c>
       <c r="E14">
-        <v>-0.9405479050069769</v>
+        <v>-0.8473895247461515</v>
       </c>
       <c r="F14">
-        <v>-0.3059565900412021</v>
+        <v>-0.5209340016646997</v>
       </c>
       <c r="G14">
-        <v>595.537926675529</v>
+        <v>10705.66158856804</v>
       </c>
       <c r="H14">
-        <v>789.3062128115588</v>
+        <v>14322.63447342758</v>
       </c>
       <c r="I14">
-        <v>-0.32568375</v>
+        <v>-0.5525134299528303</v>
       </c>
       <c r="J14">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15">
-        <v>419.5149425648291</v>
+        <v>11694.25846499598</v>
       </c>
       <c r="C15">
-        <v>849.9175709332562</v>
+        <v>17736.50160499915</v>
       </c>
       <c r="D15">
-        <v>-0.7426073097328173</v>
+        <v>-1.256762564433564</v>
       </c>
       <c r="E15">
-        <v>-0.9302595313416983</v>
+        <v>-0.8204359893054907</v>
       </c>
       <c r="F15">
-        <v>-0.3282334329442774</v>
+        <v>-0.5917561464689596</v>
       </c>
       <c r="G15">
-        <v>605.4070167926703</v>
+        <v>10794.68381279153</v>
       </c>
       <c r="H15">
-        <v>785.9733291935551</v>
+        <v>14267.74614914007</v>
       </c>
       <c r="I15">
-        <v>-0.3719799305555556</v>
+        <v>-0.6314440502358492</v>
       </c>
       <c r="J15">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16">
-        <v>414.6658386649069</v>
+        <v>11977.67778762146</v>
       </c>
       <c r="C16">
-        <v>878.4328535934092</v>
+        <v>16597.98326006109</v>
       </c>
       <c r="D16">
-        <v>-0.7328815957227902</v>
+        <v>-1.265716158557187</v>
       </c>
       <c r="E16">
-        <v>-0.9159525690099791</v>
+        <v>-0.732451723442346</v>
       </c>
       <c r="F16">
-        <v>-0.4117436021724075</v>
+        <v>-0.6680318161319764</v>
       </c>
       <c r="G16">
-        <v>615.1112877407559</v>
+        <v>10879.10100241105</v>
       </c>
       <c r="H16">
-        <v>782.1872787029304</v>
+        <v>14206.00942874184</v>
       </c>
       <c r="I16">
-        <v>-0.4182761111111112</v>
+        <v>-0.710374670518868</v>
       </c>
       <c r="J16">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17">
-        <v>451.2650677134257</v>
+        <v>12913.9015797821</v>
       </c>
       <c r="C17">
-        <v>875.8943054636364</v>
+        <v>15544.08009115031</v>
       </c>
       <c r="D17">
-        <v>-0.7436647407428822</v>
+        <v>-1.260144577946484</v>
       </c>
       <c r="E17">
-        <v>-0.8684867091699219</v>
+        <v>-0.6920913353872205</v>
       </c>
       <c r="F17">
-        <v>-0.4426553589695436</v>
+        <v>-0.7442602182825728</v>
       </c>
       <c r="G17">
-        <v>624.6299437180318</v>
+        <v>10958.38750770739</v>
       </c>
       <c r="H17">
-        <v>777.9561746699756</v>
+        <v>14137.80873500138</v>
       </c>
       <c r="I17">
-        <v>-0.4645722916666667</v>
+        <v>-0.7893052908018869</v>
       </c>
       <c r="J17">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18">
-        <v>427.6885024687807</v>
+        <v>14038.70026644968</v>
       </c>
       <c r="C18">
-        <v>869.7073448189775</v>
+        <v>14339.92906016758</v>
       </c>
       <c r="D18">
-        <v>-0.7381259924915193</v>
+        <v>-1.262381957446864</v>
       </c>
       <c r="E18">
-        <v>-0.842972542456257</v>
+        <v>-0.6621550242016162</v>
       </c>
       <c r="F18">
-        <v>-0.4772020769320904</v>
+        <v>-0.7769135325237554</v>
       </c>
       <c r="G18">
-        <v>633.9425866870024</v>
+        <v>11032.04962675285</v>
       </c>
       <c r="H18">
-        <v>773.2890841540441</v>
+        <v>14063.5687406148</v>
       </c>
       <c r="I18">
-        <v>-0.5108684722222223</v>
+        <v>-0.8682359110849058</v>
       </c>
       <c r="J18">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19">
-        <v>400.1164154346961</v>
+        <v>15136.72587796874</v>
       </c>
       <c r="C19">
-        <v>898.9821899256002</v>
+        <v>13260.94869887769</v>
       </c>
       <c r="D19">
-        <v>-0.7322434778659151</v>
+        <v>-1.263004421766552</v>
       </c>
       <c r="E19">
-        <v>-0.8703682656554276</v>
+        <v>-0.5928617334181893</v>
       </c>
       <c r="F19">
-        <v>-0.5512259939854121</v>
+        <v>-0.7889110505696246</v>
       </c>
       <c r="G19">
-        <v>643.0292600864772</v>
+        <v>11099.62867959888</v>
       </c>
       <c r="H19">
-        <v>768.1960085132654</v>
+        <v>13983.75172385006</v>
       </c>
       <c r="I19">
-        <v>-0.5571646527777778</v>
+        <v>-0.9471665313679247</v>
       </c>
       <c r="J19">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20">
-        <v>402.910791502171</v>
+        <v>16054.4239323772</v>
       </c>
       <c r="C20">
-        <v>923.4252766297699</v>
+        <v>13311.1189054339</v>
       </c>
       <c r="D20">
-        <v>-0.742562144639485</v>
+        <v>-1.263637358569308</v>
       </c>
       <c r="E20">
-        <v>-0.8385937213107088</v>
+        <v>-0.539725992330059</v>
       </c>
       <c r="F20">
-        <v>-0.5757622160893875</v>
+        <v>-0.8928209238264708</v>
       </c>
       <c r="G20">
-        <v>651.8704915975536</v>
+        <v>11160.70386438848</v>
       </c>
       <c r="H20">
-        <v>762.6878619720989</v>
+        <v>13898.85469002848</v>
       </c>
       <c r="I20">
-        <v>-0.6034608333333333</v>
+        <v>-1.026097151650944</v>
       </c>
       <c r="J20">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21">
-        <v>442.1161145815228</v>
+        <v>15573.52934790308</v>
       </c>
       <c r="C21">
-        <v>923.9794084446647</v>
+        <v>12774.99030665614</v>
       </c>
       <c r="D21">
-        <v>-0.73283249743268</v>
+        <v>-1.267923362002011</v>
       </c>
       <c r="E21">
-        <v>-0.8035809143969358</v>
+        <v>-0.4287949030175029</v>
       </c>
       <c r="F21">
-        <v>-0.5915318271122489</v>
+        <v>-0.8779808676812333</v>
       </c>
       <c r="G21">
-        <v>660.4473348718923</v>
+        <v>11214.89487760908</v>
       </c>
       <c r="H21">
-        <v>756.7764482326581</v>
+        <v>13809.40627676747</v>
       </c>
       <c r="I21">
-        <v>-0.6497570138888888</v>
+        <v>-1.105027771933963</v>
       </c>
       <c r="J21">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22">
-        <v>444.7949308207306</v>
+        <v>14471.04263861358</v>
       </c>
       <c r="C22">
-        <v>1008.508593729281</v>
+        <v>12362.56779821912</v>
       </c>
       <c r="D22">
-        <v>-0.7344249137903032</v>
+        <v>-1.255636676636114</v>
       </c>
       <c r="E22">
-        <v>-0.7739269933748092</v>
+        <v>-0.3709248496310477</v>
       </c>
       <c r="F22">
-        <v>-0.6282164636669536</v>
+        <v>-0.8917938612254784</v>
       </c>
       <c r="G22">
-        <v>668.7414101328607</v>
+        <v>11261.86428216982</v>
       </c>
       <c r="H22">
-        <v>750.4744351799258</v>
+        <v>13715.96346225508</v>
       </c>
       <c r="I22">
-        <v>-0.6960531944444444</v>
+        <v>-1.183958392216981</v>
       </c>
       <c r="J22">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23">
-        <v>401.6582633099478</v>
+        <v>15016.90449671638</v>
       </c>
       <c r="C23">
-        <v>1010.526136016103</v>
+        <v>11539.25561018581</v>
       </c>
       <c r="D23">
-        <v>-0.7438820222039356</v>
+        <v>-1.264556244787449</v>
       </c>
       <c r="E23">
-        <v>-0.722406852242727</v>
+        <v>-0.2850869899770869</v>
       </c>
       <c r="F23">
-        <v>-0.6926513733488687</v>
+        <v>-0.9520765949100678</v>
       </c>
       <c r="G23">
-        <v>676.7349435625407</v>
+        <v>11301.31960855791</v>
       </c>
       <c r="H23">
-        <v>743.7953277350643</v>
+        <v>13619.10809705316</v>
       </c>
       <c r="I23">
-        <v>-0.7423493749999999</v>
+        <v>-1.2628890125</v>
       </c>
       <c r="J23">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24">
-        <v>422.9850353013982</v>
+        <v>14058.01193095231</v>
       </c>
       <c r="C24">
-        <v>934.3600153213595</v>
+        <v>11512.1554014555</v>
       </c>
       <c r="D24">
-        <v>-0.7434678775569735</v>
+        <v>-1.26009322177089</v>
       </c>
       <c r="E24">
-        <v>-0.6788759230861132</v>
+        <v>-0.2141270708869268</v>
       </c>
       <c r="F24">
-        <v>-0.7401371433686118</v>
+        <v>-0.9863698329830337</v>
       </c>
       <c r="G24">
-        <v>684.4108053901949</v>
+        <v>11333.01517599044</v>
       </c>
       <c r="H24">
-        <v>736.7534389149979</v>
+        <v>13519.44328102505</v>
       </c>
       <c r="I24">
-        <v>-0.7886455555555554</v>
+        <v>-1.341819632783019</v>
       </c>
       <c r="J24">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="25" spans="2:10">
       <c r="B25">
-        <v>441.3134302955346</v>
+        <v>13546.8191705641</v>
       </c>
       <c r="C25">
-        <v>903.0487485261995</v>
+        <v>11546.09837981406</v>
       </c>
       <c r="D25">
-        <v>-0.7386942843453133</v>
+        <v>-1.258872878764166</v>
       </c>
       <c r="E25">
-        <v>-0.6882712032180215</v>
+        <v>-0.1250707323290237</v>
       </c>
       <c r="F25">
-        <v>-0.743002763529387</v>
+        <v>-0.9894134666383397</v>
       </c>
       <c r="G25">
-        <v>691.752546600569</v>
+        <v>11356.75362222169</v>
       </c>
       <c r="H25">
-        <v>729.3638591602818</v>
+        <v>13417.58960794787</v>
       </c>
       <c r="I25">
-        <v>-0.8349417361111109</v>
+        <v>-1.420750253066038</v>
       </c>
       <c r="J25">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26">
-        <v>461.1670907119473</v>
+        <v>13056.11057835207</v>
       </c>
       <c r="C26">
-        <v>896.3484168732873</v>
+        <v>11784.50493596793</v>
       </c>
       <c r="D26">
-        <v>-0.7387534197534638</v>
+        <v>-1.268105811338972</v>
       </c>
       <c r="E26">
-        <v>-0.6303889048556427</v>
+        <v>-0.08351160722745403</v>
       </c>
       <c r="F26">
-        <v>-0.7731651851041548</v>
+        <v>-0.9528513892437261</v>
       </c>
       <c r="G26">
-        <v>698.7444341833672</v>
+        <v>11372.38713248013</v>
       </c>
       <c r="H26">
-        <v>721.6424239969894</v>
+        <v>13314.18130119359</v>
       </c>
       <c r="I26">
-        <v>-0.8812379166666664</v>
+        <v>-1.499680873349057</v>
       </c>
       <c r="J26">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27">
-        <v>502.6149770428424</v>
+        <v>13259.49404931993</v>
       </c>
       <c r="C27">
-        <v>881.1958077490068</v>
+        <v>11351.39872639807</v>
       </c>
       <c r="D27">
-        <v>-0.7407644957757662</v>
+        <v>-1.263482448520887</v>
       </c>
       <c r="E27">
-        <v>-0.6032236022057076</v>
+        <v>-0.0007635019358122989</v>
       </c>
       <c r="F27">
-        <v>-0.7669140828101582</v>
+        <v>-1.005443991878113</v>
       </c>
       <c r="G27">
-        <v>705.3714848483626</v>
+        <v>11379.81835988282</v>
       </c>
       <c r="H27">
-        <v>713.6056801019159</v>
+        <v>13209.86226454123</v>
       </c>
       <c r="I27">
-        <v>-0.9275340972222219</v>
+        <v>4.70457381354751</v>
       </c>
       <c r="J27">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28">
-        <v>561.6022873009861</v>
+        <v>13254.40130396167</v>
       </c>
       <c r="C28">
-        <v>868.2871455510111</v>
+        <v>11353.33313969533</v>
       </c>
       <c r="D28">
-        <v>-0.7396576245027625</v>
+        <v>-1.258404469559564</v>
       </c>
       <c r="E28">
-        <v>-0.5631198852933803</v>
+        <v>0.06888735062195335</v>
       </c>
       <c r="F28">
-        <v>-0.8076708117896042</v>
+        <v>-1.003424908855786</v>
       </c>
       <c r="G28">
-        <v>711.6194971338916</v>
+        <v>11379.00103159579</v>
       </c>
       <c r="H28">
-        <v>705.2708498438186</v>
+        <v>13105.28207271095</v>
       </c>
       <c r="I28">
-        <v>-0.9738302777777774</v>
+        <v>4.625643193264492</v>
       </c>
       <c r="J28">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29">
-        <v>541.6390449313286</v>
+        <v>13087.10240004678</v>
       </c>
       <c r="C29">
-        <v>877.2925065519231</v>
+        <v>11089.78183197883</v>
       </c>
       <c r="D29">
-        <v>-0.7450154636789569</v>
+        <v>-1.27808909017668</v>
       </c>
       <c r="E29">
-        <v>-0.5066487989949254</v>
+        <v>0.1809731624550796</v>
       </c>
       <c r="F29">
-        <v>-0.8437448672979309</v>
+        <v>-0.9724091053389567</v>
       </c>
       <c r="G29">
-        <v>717.4750818399268</v>
+        <v>11369.94023696622</v>
       </c>
       <c r="H29">
-        <v>696.6557943766807</v>
+        <v>13001.09192658634</v>
       </c>
       <c r="I29">
-        <v>-1.020126458333333</v>
+        <v>4.546712572981473</v>
       </c>
       <c r="J29">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30">
-        <v>552.0855644343973</v>
+        <v>13475.81474690684</v>
       </c>
       <c r="C30">
-        <v>819.2881169173654</v>
+        <v>11463.8133211663</v>
       </c>
       <c r="D30">
-        <v>-0.7468662556887524</v>
+        <v>-1.274876253487055</v>
       </c>
       <c r="E30">
-        <v>-0.4736198823324816</v>
+        <v>0.2667920473207659</v>
       </c>
       <c r="F30">
-        <v>-0.8603560271682795</v>
+        <v>-0.9560346014759561</v>
       </c>
       <c r="G30">
-        <v>722.9256907205101</v>
+        <v>11352.69239583198</v>
       </c>
       <c r="H30">
-        <v>687.7789753640882</v>
+        <v>12897.94059831086</v>
       </c>
       <c r="I30">
-        <v>-1.066422638888888</v>
+        <v>4.467781952698455</v>
       </c>
       <c r="J30">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31">
-        <v>583.9126385981561</v>
+        <v>13603.85959021291</v>
       </c>
       <c r="C31">
-        <v>806.3295924030894</v>
+        <v>12019.58041058505</v>
       </c>
       <c r="D31">
-        <v>-0.7307138675512705</v>
+        <v>-1.263670288924652</v>
       </c>
       <c r="E31">
-        <v>-0.4317468905879611</v>
+        <v>0.3209325800694684</v>
       </c>
       <c r="F31">
-        <v>-0.8995955966253264</v>
+        <v>-0.9505420251996616</v>
       </c>
       <c r="G31">
-        <v>727.9596433740613</v>
+        <v>11327.36490720613</v>
       </c>
       <c r="H31">
-        <v>678.6594154167431</v>
+        <v>12796.47039150761</v>
       </c>
       <c r="I31">
-        <v>-1.112718819444444</v>
+        <v>4.388851332415436</v>
       </c>
       <c r="J31">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32">
-        <v>640.5405954510201</v>
+        <v>14020.30074918815</v>
       </c>
       <c r="C32">
-        <v>811.8224438197882</v>
+        <v>12420.10042301873</v>
       </c>
       <c r="D32">
-        <v>-0.7323191247375672</v>
+        <v>-1.265833309554976</v>
       </c>
       <c r="E32">
-        <v>-0.3740468802838236</v>
+        <v>0.376111035937122</v>
       </c>
       <c r="F32">
-        <v>-0.933844968144398</v>
+        <v>-0.9104462347155626</v>
       </c>
       <c r="G32">
-        <v>732.5661522739355</v>
+        <v>11294.11548052372</v>
       </c>
       <c r="H32">
-        <v>669.3166573278918</v>
+        <v>12697.3131417773</v>
       </c>
       <c r="I32">
-        <v>-1.159014999999999</v>
+        <v>4.309920712132418</v>
       </c>
       <c r="J32">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33">
-        <v>718.3716488518554</v>
+        <v>14129.43618405157</v>
       </c>
       <c r="C33">
-        <v>832.7337001726105</v>
+        <v>12714.9654420961</v>
       </c>
       <c r="D33">
-        <v>-0.7416056004814555</v>
+        <v>-1.2604109868324</v>
       </c>
       <c r="E33">
-        <v>-0.357194915143455</v>
+        <v>0.4689264796471964</v>
       </c>
       <c r="F33">
-        <v>-0.9370046406993242</v>
+        <v>-0.8936938851388383</v>
       </c>
       <c r="G33">
-        <v>736.7353458855918</v>
+        <v>11253.1511536153</v>
       </c>
       <c r="H33">
-        <v>659.7707221940277</v>
+        <v>12601.08628237865</v>
       </c>
       <c r="I33">
-        <v>-1.205311180555555</v>
+        <v>4.230990091849399</v>
       </c>
       <c r="J33">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34">
-        <v>696.6364625966817</v>
+        <v>14926.54304748274</v>
       </c>
       <c r="C34">
-        <v>773.2706006096627</v>
+        <v>13477.42256930903</v>
       </c>
       <c r="D34">
-        <v>-0.7398726960983364</v>
+        <v>-1.258893545954514</v>
       </c>
       <c r="E34">
-        <v>-0.3350567517688393</v>
+        <v>0.5419980444777814</v>
       </c>
       <c r="F34">
-        <v>-0.992243040311553</v>
+        <v>-0.8724988712150968</v>
       </c>
       <c r="G34">
-        <v>740.4582898208329</v>
+        <v>11204.72700352186</v>
       </c>
       <c r="H34">
-        <v>650.0420665106114</v>
+        <v>12508.38899958937</v>
       </c>
       <c r="I34">
-        <v>-1.25160736111111</v>
+        <v>4.152059471566381</v>
       </c>
       <c r="J34">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35">
-        <v>694.9543430610172</v>
+        <v>15232.03311250965</v>
       </c>
       <c r="C35">
-        <v>809.0145473916297</v>
+        <v>12521.75430969123</v>
       </c>
       <c r="D35">
-        <v>-0.7398067221876055</v>
+        <v>-1.258754657136725</v>
       </c>
       <c r="E35">
-        <v>-0.2297670097853866</v>
+        <v>0.6238735095018944</v>
       </c>
       <c r="F35">
-        <v>-0.9576170939580843</v>
+        <v>-0.7811862588634746</v>
       </c>
       <c r="G35">
-        <v>743.7270059837841</v>
+        <v>11149.14455817881</v>
       </c>
       <c r="H35">
-        <v>640.1515383347516</v>
+        <v>12419.79850168765</v>
       </c>
       <c r="I35">
-        <v>-1.297903541666666</v>
+        <v>4.073128851283363</v>
       </c>
       <c r="J35">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36">
-        <v>621.0887465719339</v>
+        <v>16315.85741699077</v>
       </c>
       <c r="C36">
-        <v>781.8720484908253</v>
+        <v>11811.6746845568</v>
       </c>
       <c r="D36">
-        <v>-0.7363511668543991</v>
+        <v>-1.259691802538173</v>
       </c>
       <c r="E36">
-        <v>-0.200363022559761</v>
+        <v>0.6661258718134672</v>
       </c>
       <c r="F36">
-        <v>-1.00048873707804</v>
+        <v>-0.7400219438852302</v>
       </c>
       <c r="G36">
-        <v>746.5344896675822</v>
+        <v>11086.74991885912</v>
       </c>
       <c r="H36">
-        <v>630.1203326087871</v>
+        <v>12335.86642478642</v>
       </c>
       <c r="I36">
-        <v>-1.344199722222222</v>
+        <v>3.994198231000344</v>
       </c>
       <c r="J36">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37">
-        <v>640.7850762303889</v>
+        <v>15170.7621587824</v>
       </c>
       <c r="C37">
-        <v>767.4189040026305</v>
+        <v>11018.53887149921</v>
       </c>
       <c r="D37">
-        <v>-0.7371662768844107</v>
+        <v>-1.258544788284276</v>
       </c>
       <c r="E37">
-        <v>-0.1918878777662248</v>
+        <v>0.7464378197379375</v>
       </c>
       <c r="F37">
-        <v>-1.009009882576265</v>
+        <v>-0.686830096949826</v>
       </c>
       <c r="G37">
-        <v>748.8747245651363</v>
+        <v>11017.93160506678</v>
       </c>
       <c r="H37">
-        <v>619.9699457405103</v>
+        <v>12257.11539790064</v>
       </c>
       <c r="I37">
-        <v>-1.390495902777777</v>
+        <v>3.915267610717325</v>
       </c>
       <c r="J37">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="38" spans="2:10">
       <c r="B38">
-        <v>609.2926788434853</v>
+        <v>14424.2087191745</v>
       </c>
       <c r="C38">
-        <v>746.7076612372223</v>
+        <v>10304.78188242426</v>
       </c>
       <c r="D38">
-        <v>-0.7356046259590048</v>
+        <v>-1.258787255690313</v>
       </c>
       <c r="E38">
-        <v>-0.1303681148441772</v>
+        <v>0.7618713507933927</v>
       </c>
       <c r="F38">
-        <v>-0.9760046252102721</v>
+        <v>-0.6541807967886717</v>
       </c>
       <c r="G38">
-        <v>750.7426956617949</v>
+        <v>10943.11813530001</v>
       </c>
       <c r="H38">
-        <v>609.7221295373641</v>
+        <v>12184.03578863619</v>
       </c>
       <c r="I38">
-        <v>-1.436792083333333</v>
+        <v>3.836336990434306</v>
       </c>
       <c r="J38">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="39" spans="2:10">
       <c r="B39">
-        <v>582.4233137581815</v>
+        <v>13348.97529118731</v>
       </c>
       <c r="C39">
-        <v>769.465686529298</v>
+        <v>10001.7563260283</v>
       </c>
       <c r="D39">
-        <v>-0.7389578379363861</v>
+        <v>-1.267767798917053</v>
       </c>
       <c r="E39">
-        <v>-0.08604041448136678</v>
+        <v>0.7742852743891931</v>
       </c>
       <c r="F39">
-        <v>-0.9952025536753041</v>
+        <v>-0.5829520973645876</v>
       </c>
       <c r="G39">
-        <v>752.1343999822892</v>
+        <v>10862.77535874847</v>
       </c>
       <c r="H39">
-        <v>599.3988445933294</v>
+        <v>12117.08264976446</v>
       </c>
       <c r="I39">
-        <v>-1.483088263888888</v>
+        <v>3.757406370151287</v>
       </c>
       <c r="J39">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="40" spans="2:10">
       <c r="B40">
-        <v>624.4760765940122</v>
+        <v>12586.33816795574</v>
       </c>
       <c r="C40">
-        <v>748.8234540840936</v>
+        <v>9366.295573865606</v>
       </c>
       <c r="D40">
-        <v>-0.7413786662661231</v>
+        <v>-1.259338757016998</v>
       </c>
       <c r="E40">
-        <v>-0.05563385452760022</v>
+        <v>0.8665340169114871</v>
       </c>
       <c r="F40">
-        <v>-1.007628775678697</v>
+        <v>-0.523785671697149</v>
       </c>
       <c r="G40">
-        <v>753.0468551689229</v>
+        <v>10777.40355453924</v>
       </c>
       <c r="H40">
-        <v>589.022213228392</v>
+        <v>12056.67288569566</v>
       </c>
       <c r="I40">
-        <v>-1.529384444444444</v>
+        <v>3.678475749868268</v>
       </c>
       <c r="J40">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="41" spans="2:10">
       <c r="B41">
-        <v>607.544518130137</v>
+        <v>11833.82148565143</v>
       </c>
       <c r="C41">
-        <v>746.1001937690232</v>
+        <v>8923.249170301428</v>
       </c>
       <c r="D41">
-        <v>-0.7501563467727209</v>
+        <v>-1.264350831987587</v>
       </c>
       <c r="E41">
-        <v>-0.04567550343968501</v>
+        <v>0.8717765711836306</v>
       </c>
       <c r="F41">
-        <v>-1.001614578960838</v>
+        <v>-0.4532374525516472</v>
       </c>
       <c r="G41">
-        <v>753.4781058726262</v>
+        <v>10687.53431659429</v>
       </c>
       <c r="H41">
-        <v>578.6144720814394</v>
+        <v>12003.1826564946</v>
       </c>
       <c r="I41">
-        <v>4.707504682179588</v>
+        <v>3.599545129585249</v>
       </c>
       <c r="J41">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="42" spans="2:10">
       <c r="B42">
-        <v>578.8388257224209</v>
+        <v>11499.05524881835</v>
       </c>
       <c r="C42">
-        <v>724.3800412275071</v>
+        <v>8740.636893874937</v>
       </c>
       <c r="D42">
-        <v>-0.7370275764147606</v>
+        <v>-1.259526953284916</v>
       </c>
       <c r="E42">
-        <v>0.0692876232031514</v>
+        <v>0.954560538849991</v>
       </c>
       <c r="F42">
-        <v>-1.02315549726509</v>
+        <v>-0.359296507933571</v>
       </c>
       <c r="G42">
-        <v>753.4272279431783</v>
+        <v>10593.72724349661</v>
       </c>
       <c r="H42">
-        <v>568.1979244581762</v>
+        <v>11956.94503560388</v>
       </c>
       <c r="I42">
-        <v>4.661208501624032</v>
+        <v>3.52061450930223</v>
       </c>
       <c r="J42">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="43" spans="2:10">
       <c r="B43">
-        <v>558.5727091145089</v>
+        <v>11089.673273931</v>
       </c>
       <c r="C43">
-        <v>812.4574088981465</v>
+        <v>8377.006369890014</v>
       </c>
       <c r="D43">
-        <v>-0.6958086196862496</v>
+        <v>-1.185021280945447</v>
       </c>
       <c r="E43">
-        <v>0.09408063264700781</v>
+        <v>0.9472170771806656</v>
       </c>
       <c r="F43">
-        <v>-1.0110516521899</v>
+        <v>-0.2730090251254169</v>
       </c>
       <c r="G43">
-        <v>752.9276365154574</v>
+        <v>10502.63901243052</v>
       </c>
       <c r="H43">
-        <v>558.4450822263584</v>
+        <v>11920.66650822101</v>
       </c>
       <c r="I43">
-        <v>4.617805828012921</v>
+        <v>3.44661701578808</v>
       </c>
       <c r="J43">
-        <v>-0.6944427777777779</v>
+        <v>-1.183959896226415</v>
       </c>
     </row>
     <row r="44" spans="2:10">
       <c r="B44">
-        <v>558.9046311829227</v>
+        <v>10871.32586248357</v>
       </c>
       <c r="C44">
-        <v>752.1475081059132</v>
+        <v>8305.764764900356</v>
       </c>
       <c r="D44">
-        <v>-0.6404628552080165</v>
+        <v>-1.101451863964436</v>
       </c>
       <c r="E44">
-        <v>0.1537974137865045</v>
+        <v>0.9832588456454657</v>
       </c>
       <c r="F44">
-        <v>-0.9785342509174396</v>
+        <v>-0.2187264312090874</v>
       </c>
       <c r="G44">
-        <v>752.0668350368136</v>
+        <v>10415.35272492387</v>
       </c>
       <c r="H44">
-        <v>549.3712353229531</v>
+        <v>11893.18442029004</v>
       </c>
       <c r="I44">
-        <v>4.577296626624032</v>
+        <v>3.377552649042797</v>
       </c>
       <c r="J44">
-        <v>-0.6481472222222223</v>
+        <v>-1.105029867924528</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45">
-        <v>563.1426941746101</v>
+        <v>10569.62360785151</v>
       </c>
       <c r="C45">
-        <v>720.2474731303423</v>
+        <v>8694.943750579034</v>
       </c>
       <c r="D45">
-        <v>-0.601531352265449</v>
+        <v>-1.030664353102691</v>
       </c>
       <c r="E45">
-        <v>0.1565401394835921</v>
+        <v>0.9589798736855195</v>
       </c>
       <c r="F45">
-        <v>-0.9483360914487692</v>
+        <v>-0.1676933030199894</v>
       </c>
       <c r="G45">
-        <v>750.9269495279262</v>
+        <v>10332.7333512473</v>
       </c>
       <c r="H45">
-        <v>540.9848037913187</v>
+        <v>11873.31950373242</v>
       </c>
       <c r="I45">
-        <v>4.539680932179587</v>
+        <v>3.313421409066382</v>
       </c>
       <c r="J45">
-        <v>-0.6018511111111111</v>
+        <v>-1.026099839622642</v>
       </c>
     </row>
     <row r="46" spans="2:10">
       <c r="B46">
-        <v>557.8172684777352</v>
+        <v>10491.26884139785</v>
       </c>
       <c r="C46">
-        <v>728.7646004529014</v>
+        <v>8058.717459387007</v>
       </c>
       <c r="D46">
-        <v>-0.5606172560024297</v>
+        <v>-0.9418752763874813</v>
       </c>
       <c r="E46">
-        <v>0.2062373712261952</v>
+        <v>1.017348165240076</v>
       </c>
       <c r="F46">
-        <v>-1.003718935503201</v>
+        <v>-0.09680286838148139</v>
       </c>
       <c r="G46">
-        <v>749.584365648921</v>
+        <v>10255.45094337464</v>
       </c>
       <c r="H46">
-        <v>533.2885303568677</v>
+        <v>11859.90791025311</v>
       </c>
       <c r="I46">
-        <v>4.504958709957365</v>
+        <v>3.254223295858834</v>
       </c>
       <c r="J46">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="47" spans="2:10">
       <c r="B47">
-        <v>544.7135451906581</v>
+        <v>10128.58769640263</v>
       </c>
       <c r="C47">
-        <v>772.9735773608852</v>
+        <v>8063.585640795084</v>
       </c>
       <c r="D47">
-        <v>-0.4946877462744301</v>
+        <v>-0.8254525093805575</v>
       </c>
       <c r="E47">
-        <v>0.2183029204405133</v>
+        <v>0.9565763299969354</v>
       </c>
       <c r="F47">
-        <v>-1.01339076236906</v>
+        <v>-0.0776593022980383</v>
       </c>
       <c r="G47">
-        <v>748.1765320790468</v>
+        <v>10187.25299718526</v>
       </c>
       <c r="H47">
-        <v>526.5991323164278</v>
+        <v>11852.1940858313</v>
       </c>
       <c r="I47">
-        <v>4.47457676551292</v>
+        <v>3.202424946802231</v>
       </c>
       <c r="J47">
-        <v>-0.4861111111111111</v>
+        <v>-0.8287735849056603</v>
       </c>
     </row>
     <row r="48" spans="2:10">
       <c r="B48">
-        <v>534.9523154366407</v>
+        <v>10229.69969387492</v>
       </c>
       <c r="C48">
-        <v>753.861242005303</v>
+        <v>8035.50735441813</v>
       </c>
       <c r="D48">
-        <v>-0.4120978072605672</v>
+        <v>-0.7025480963104912</v>
       </c>
       <c r="E48">
-        <v>0.2702248456343711</v>
+        <v>1.008250721944562</v>
       </c>
       <c r="F48">
-        <v>-0.9285823253205092</v>
+        <v>-0.04674650255379572</v>
       </c>
       <c r="G48">
-        <v>746.7961982090681</v>
+        <v>10128.53368735798</v>
       </c>
       <c r="H48">
-        <v>520.9046653705219</v>
+        <v>11848.61764284654</v>
       </c>
       <c r="I48">
-        <v>4.448535098846254</v>
+        <v>3.15802636189657</v>
       </c>
       <c r="J48">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="49" spans="2:10">
       <c r="B49">
-        <v>528.3825396261548</v>
+        <v>10004.66278425126</v>
       </c>
       <c r="C49">
-        <v>783.738310404409</v>
+        <v>8056.367627270822</v>
       </c>
       <c r="D49">
-        <v>-0.3520511481664552</v>
+        <v>-0.5908573033495137</v>
       </c>
       <c r="E49">
-        <v>0.2770053172033464</v>
+        <v>1.000739270020423</v>
       </c>
       <c r="F49">
-        <v>-0.9103926466928555</v>
+        <v>0.0030921162131133</v>
       </c>
       <c r="G49">
-        <v>745.5227461287997</v>
+        <v>10079.51686950968</v>
       </c>
       <c r="H49">
-        <v>516.19083702093</v>
+        <v>11847.8120422366</v>
       </c>
       <c r="I49">
-        <v>4.426833709957364</v>
+        <v>3.121027541141853</v>
       </c>
       <c r="J49">
-        <v>-0.3472222222222222</v>
+        <v>-0.5919811320754716</v>
       </c>
     </row>
     <row r="50" spans="2:10">
       <c r="B50">
-        <v>547.6127929382577</v>
+        <v>10024.19350363619</v>
       </c>
       <c r="C50">
-        <v>779.6263982270589</v>
+        <v>8325.688587915538</v>
       </c>
       <c r="D50">
-        <v>-0.2740715449808939</v>
+        <v>-0.4710288256939559</v>
       </c>
       <c r="E50">
-        <v>0.3393125778010082</v>
+        <v>0.9985350307299344</v>
       </c>
       <c r="F50">
-        <v>-0.9619483805794176</v>
+        <v>0.04340819669089098</v>
       </c>
       <c r="G50">
-        <v>744.4223934738782</v>
+        <v>10040.30641248977</v>
       </c>
       <c r="H50">
-        <v>512.4427691056825</v>
+        <v>11848.61852339093</v>
       </c>
       <c r="I50">
-        <v>4.409472598846254</v>
+        <v>3.09142848453808</v>
       </c>
       <c r="J50">
-        <v>-0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="51" spans="2:10">
       <c r="B51">
-        <v>539.2054082771791</v>
+        <v>9928.427923531062</v>
       </c>
       <c r="C51">
-        <v>770.4557696402479</v>
+        <v>8409.665982292621</v>
       </c>
       <c r="D51">
-        <v>-0.2171238811481585</v>
+        <v>-0.3573197313511021</v>
       </c>
       <c r="E51">
-        <v>0.2998658263655563</v>
+        <v>1.009791471214473</v>
       </c>
       <c r="F51">
-        <v>-1.014950073298863</v>
+        <v>0.07373160141141452</v>
       </c>
       <c r="G51">
-        <v>743.5484528342158</v>
+        <v>10010.92935164785</v>
       </c>
       <c r="H51">
-        <v>509.6464685842788</v>
+        <v>11850.09343662363</v>
       </c>
       <c r="I51">
-        <v>4.39645176551292</v>
+        <v>3.069229192085249</v>
       </c>
       <c r="J51">
-        <v>-0.2083333333333333</v>
+        <v>-0.355188679245283</v>
       </c>
     </row>
     <row r="52" spans="2:10">
       <c r="B52">
-        <v>520.7277504608638</v>
+        <v>10254.99463173085</v>
       </c>
       <c r="C52">
-        <v>762.3423225762897</v>
+        <v>8196.534716099666</v>
       </c>
       <c r="D52">
-        <v>-0.1405600258473001</v>
+        <v>-0.2394421617657319</v>
       </c>
       <c r="E52">
-        <v>0.2617629117887456</v>
+        <v>0.9887238922227937</v>
       </c>
       <c r="F52">
-        <v>-0.9429971600577384</v>
+        <v>0.09885340330976153</v>
       </c>
       <c r="G52">
-        <v>742.9416023741836</v>
+        <v>9991.37129620499</v>
       </c>
       <c r="H52">
-        <v>507.7900123405758</v>
+        <v>11851.51120077353</v>
       </c>
       <c r="I52">
-        <v>4.387771209957365</v>
+        <v>3.054429663783363</v>
       </c>
       <c r="J52">
-        <v>-0.1388888888888889</v>
+        <v>-0.2367924528301887</v>
       </c>
     </row>
     <row r="53" spans="2:10">
       <c r="B53">
-        <v>518.1667726767572</v>
+        <v>9959.885562891061</v>
       </c>
       <c r="C53">
-        <v>786.5684937296796</v>
+        <v>8289.727307811952</v>
       </c>
       <c r="D53">
-        <v>-0.06593460184313284</v>
+        <v>-0.1082673500362201</v>
       </c>
       <c r="E53">
-        <v>0.3326067461818592</v>
+        <v>1.000495185996967</v>
       </c>
       <c r="F53">
-        <v>-0.9999140448112923</v>
+        <v>0.06569386007862982</v>
       </c>
       <c r="G53">
-        <v>742.6301311413631</v>
+        <v>9981.603830132228</v>
       </c>
       <c r="H53">
-        <v>506.8644530569362</v>
+        <v>11852.36472493257</v>
       </c>
       <c r="I53">
-        <v>4.383430932179587</v>
+        <v>3.047029899632419</v>
       </c>
       <c r="J53">
-        <v>-0.06944444444444445</v>
+        <v>-0.1183962264150943</v>
       </c>
     </row>
     <row r="54" spans="2:10">
       <c r="B54">
-        <v>530.1183308996578</v>
+        <v>10384.56274406222</v>
       </c>
       <c r="C54">
-        <v>811.8068150128645</v>
+        <v>7940.285296122654</v>
       </c>
       <c r="D54">
-        <v>-0.001938982400671878</v>
+        <v>0.001518408449805991</v>
       </c>
       <c r="E54">
-        <v>0.2955034831553161</v>
+        <v>0.9729993906793948</v>
       </c>
       <c r="F54">
-        <v>-0.9321988527407561</v>
+        <v>0.07880823383975842</v>
       </c>
       <c r="G54">
-        <v>742.6301311413631</v>
+        <v>9981.603830132228</v>
       </c>
       <c r="H54">
-        <v>506.8644530569362</v>
+        <v>11852.36472493257</v>
       </c>
       <c r="I54">
-        <v>4.383430932179587</v>
+        <v>3.047029899632419</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -1946,2203 +1946,2203 @@
     </row>
     <row r="55" spans="2:10">
       <c r="B55">
-        <v>520.3775397104232</v>
+        <v>10180.90347311272</v>
       </c>
       <c r="C55">
-        <v>800.2469493553745</v>
+        <v>7990.972537436694</v>
       </c>
       <c r="D55">
-        <v>-0.0701776391601852</v>
+        <v>-0.1225072770871201</v>
       </c>
       <c r="E55">
-        <v>0.3460469028591518</v>
+        <v>0.9790970215743167</v>
       </c>
       <c r="F55">
-        <v>-0.9418112996838108</v>
+        <v>0.1262863754498713</v>
       </c>
       <c r="G55">
-        <v>742.3146456705091</v>
+        <v>9971.842947294253</v>
       </c>
       <c r="H55">
-        <v>505.9402543585567</v>
+        <v>11853.29050200941</v>
       </c>
       <c r="I55">
-        <v>4.37909065440181</v>
+        <v>3.039630135481476</v>
       </c>
       <c r="J55">
-        <v>-0.06944444444444445</v>
+        <v>-0.1183962264150943</v>
       </c>
     </row>
     <row r="56" spans="2:10">
       <c r="B56">
-        <v>534.8541102212092</v>
+        <v>9690.153789313912</v>
       </c>
       <c r="C56">
-        <v>773.6739543756938</v>
+        <v>8204.513257878565</v>
       </c>
       <c r="D56">
-        <v>-0.1374182634971254</v>
+        <v>-0.2364915475969767</v>
       </c>
       <c r="E56">
-        <v>0.3444026424214967</v>
+        <v>1.013285255121771</v>
       </c>
       <c r="F56">
-        <v>-0.9733659618244189</v>
+        <v>0.1054059158465899</v>
       </c>
       <c r="G56">
-        <v>741.6756581389531</v>
+        <v>9952.335417026752</v>
       </c>
       <c r="H56">
-        <v>504.0946129523944</v>
+        <v>11855.28646061448</v>
       </c>
       <c r="I56">
-        <v>4.370410098846254</v>
+        <v>3.024830607179589</v>
       </c>
       <c r="J56">
-        <v>-0.1388888888888889</v>
+        <v>-0.2367924528301887</v>
       </c>
     </row>
     <row r="57" spans="2:10">
       <c r="B57">
-        <v>545.9396887424876</v>
+        <v>10475.7502376924</v>
       </c>
       <c r="C57">
-        <v>799.4733208043713</v>
+        <v>8429.003691286161</v>
       </c>
       <c r="D57">
-        <v>-0.2106318498061131</v>
+        <v>-0.3565157380378056</v>
       </c>
       <c r="E57">
-        <v>0.3590979608161294</v>
+        <v>1.011457654133142</v>
       </c>
       <c r="F57">
-        <v>-0.9200095939271395</v>
+        <v>0.09546809328691271</v>
       </c>
       <c r="G57">
-        <v>740.6931814658186</v>
+        <v>9923.121633311161</v>
       </c>
       <c r="H57">
-        <v>501.334575192797</v>
+        <v>11858.71310821419</v>
       </c>
       <c r="I57">
-        <v>4.357389265512921</v>
+        <v>3.002631314726759</v>
       </c>
       <c r="J57">
-        <v>-0.2083333333333333</v>
+        <v>-0.355188679245283</v>
       </c>
     </row>
     <row r="58" spans="2:10">
       <c r="B58">
-        <v>549.0693374690196</v>
+        <v>10325.81906610478</v>
       </c>
       <c r="C58">
-        <v>782.9312395994035</v>
+        <v>8227.293596068188</v>
       </c>
       <c r="D58">
-        <v>-0.2760566182908678</v>
+        <v>-0.4854284206285582</v>
       </c>
       <c r="E58">
-        <v>0.349560987250132</v>
+        <v>0.969988723583441</v>
       </c>
       <c r="F58">
-        <v>-0.9718797751855097</v>
+        <v>0.1328463064477702</v>
       </c>
       <c r="G58">
-        <v>739.3354076459503</v>
+        <v>9884.280936371078</v>
       </c>
       <c r="H58">
-        <v>497.6718932087066</v>
+        <v>11864.14547535672</v>
       </c>
       <c r="I58">
-        <v>4.340028154401811</v>
+        <v>2.973032258122986</v>
       </c>
       <c r="J58">
-        <v>-0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="59" spans="2:10">
       <c r="B59">
-        <v>498.5602648013178</v>
+        <v>9932.027690153893</v>
       </c>
       <c r="C59">
-        <v>789.5550871582476</v>
+        <v>8314.142857399042</v>
       </c>
       <c r="D59">
-        <v>-0.3491092018100838</v>
+        <v>-0.5962637550068954</v>
       </c>
       <c r="E59">
-        <v>0.3927030485559733</v>
+        <v>0.9716109848470734</v>
       </c>
       <c r="F59">
-        <v>-0.9183402724550859</v>
+        <v>0.2172612608306496</v>
       </c>
       <c r="G59">
-        <v>737.5589648490206</v>
+        <v>9835.952293284457</v>
       </c>
       <c r="H59">
-        <v>493.1236947852215</v>
+        <v>11872.36981008497</v>
       </c>
       <c r="I59">
-        <v>4.318326765512921</v>
+        <v>2.936033437368269</v>
       </c>
       <c r="J59">
-        <v>-0.3472222222222222</v>
+        <v>-0.5919811320754716</v>
       </c>
     </row>
     <row r="60" spans="2:10">
       <c r="B60">
-        <v>558.4117129025637</v>
+        <v>10124.39007210154</v>
       </c>
       <c r="C60">
-        <v>808.9839745795221</v>
+        <v>8204.618806549293</v>
       </c>
       <c r="D60">
-        <v>-0.4092468832237412</v>
+        <v>-0.7171076319634393</v>
       </c>
       <c r="E60">
-        <v>0.4061505109977667</v>
+        <v>0.9439551393876914</v>
       </c>
       <c r="F60">
-        <v>-0.9192371744706113</v>
+        <v>0.2622874795129468</v>
       </c>
       <c r="G60">
-        <v>735.309302072015</v>
+        <v>9778.362677189518</v>
       </c>
       <c r="H60">
-        <v>487.7133997119025</v>
+        <v>11884.37749133712</v>
       </c>
       <c r="I60">
-        <v>4.292285098846254</v>
+        <v>2.891634852462608</v>
       </c>
       <c r="J60">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="61" spans="2:10">
       <c r="B61">
-        <v>532.3980171657573</v>
+        <v>10048.2662277285</v>
       </c>
       <c r="C61">
-        <v>831.37902756442</v>
+        <v>8516.60167771651</v>
       </c>
       <c r="D61">
-        <v>-0.4878170651457583</v>
+        <v>-0.8258064391078012</v>
       </c>
       <c r="E61">
-        <v>0.4700865079826643</v>
+        <v>0.9308368776972953</v>
       </c>
       <c r="F61">
-        <v>-0.9086633236793571</v>
+        <v>0.2526226581478174</v>
       </c>
       <c r="G61">
-        <v>732.5212287052165</v>
+        <v>9711.862776142432</v>
       </c>
       <c r="H61">
-        <v>481.471870379659</v>
+        <v>11901.35471467864</v>
       </c>
       <c r="I61">
-        <v>4.26190315440181</v>
+        <v>2.839836503406004</v>
       </c>
       <c r="J61">
-        <v>-0.4861111111111111</v>
+        <v>-0.8287735849056603</v>
       </c>
     </row>
     <row r="62" spans="2:10">
       <c r="B62">
-        <v>544.9632886469121</v>
+        <v>10370.17670948082</v>
       </c>
       <c r="C62">
-        <v>793.4476620483691</v>
+        <v>8693.476795274712</v>
       </c>
       <c r="D62">
-        <v>-0.5646052040893725</v>
+        <v>-0.947250951331355</v>
       </c>
       <c r="E62">
-        <v>0.481663466920938</v>
+        <v>0.9365389517366433</v>
       </c>
       <c r="F62">
-        <v>-0.8703787936241949</v>
+        <v>0.3709231321411468</v>
       </c>
       <c r="G62">
-        <v>729.1196432102104</v>
+        <v>9636.969393132917</v>
       </c>
       <c r="H62">
-        <v>474.4387791410809</v>
+        <v>11924.66614079632</v>
       </c>
       <c r="I62">
-        <v>4.227180932179587</v>
+        <v>2.780638390198457</v>
       </c>
       <c r="J62">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="63" spans="2:10">
       <c r="B63">
-        <v>540.1048324013486</v>
+        <v>10458.88319592712</v>
       </c>
       <c r="C63">
-        <v>838.4090155018107</v>
+        <v>9048.7706864227</v>
       </c>
       <c r="D63">
-        <v>-0.6045772033320338</v>
+        <v>-1.021393318700131</v>
       </c>
       <c r="E63">
-        <v>0.5146887147132186</v>
+        <v>0.9220872315935054</v>
       </c>
       <c r="F63">
-        <v>-0.8576397166635906</v>
+        <v>0.384148250054703</v>
       </c>
       <c r="G63">
-        <v>725.1723106909633</v>
+        <v>9557.471124458043</v>
       </c>
       <c r="H63">
-        <v>466.9521150781849</v>
+        <v>11954.67615736159</v>
       </c>
       <c r="I63">
-        <v>4.189565237735143</v>
+        <v>2.716507150222042</v>
       </c>
       <c r="J63">
-        <v>-0.6018511111111111</v>
+        <v>-1.026099839622642</v>
       </c>
     </row>
     <row r="64" spans="2:10">
       <c r="B64">
-        <v>543.4160735951353</v>
+        <v>10732.05894285788</v>
       </c>
       <c r="C64">
-        <v>849.6535978482962</v>
+        <v>9111.138512777778</v>
       </c>
       <c r="D64">
-        <v>-0.6480617477965912</v>
+        <v>-1.103854758080292</v>
       </c>
       <c r="E64">
-        <v>0.533545890470681</v>
+        <v>0.8724835300197689</v>
       </c>
       <c r="F64">
-        <v>-0.8346767076208408</v>
+        <v>0.5083006144699118</v>
       </c>
       <c r="G64">
-        <v>720.6211367842083</v>
+        <v>9474.104793074599</v>
       </c>
       <c r="H64">
-        <v>459.0551224301862</v>
+        <v>11992.41494291976</v>
       </c>
       <c r="I64">
-        <v>4.149056036346254</v>
+        <v>2.647442783476759</v>
       </c>
       <c r="J64">
-        <v>-0.6481472222222223</v>
+        <v>-1.105029867924528</v>
       </c>
     </row>
     <row r="65" spans="2:10">
       <c r="B65">
-        <v>538.0709891791397</v>
+        <v>11294.91769401555</v>
       </c>
       <c r="C65">
-        <v>895.0557135550376</v>
+        <v>9221.563772718428</v>
       </c>
       <c r="D65">
-        <v>-0.6949781757770748</v>
+        <v>-1.185428343233395</v>
       </c>
       <c r="E65">
-        <v>0.5817432406287104</v>
+        <v>0.8252978377718292</v>
       </c>
       <c r="F65">
-        <v>-0.8186013529274446</v>
+        <v>0.5148895153736104</v>
       </c>
       <c r="G65">
-        <v>715.406221232011</v>
+        <v>9387.787012519439</v>
       </c>
       <c r="H65">
-        <v>450.7984778952172</v>
+        <v>12038.91696597092</v>
       </c>
       <c r="I65">
-        <v>4.105653362735143</v>
+        <v>2.573445289962609</v>
       </c>
       <c r="J65">
-        <v>-0.6944427777777779</v>
+        <v>-1.183959896226415</v>
       </c>
     </row>
     <row r="66" spans="2:10">
       <c r="B66">
-        <v>545.8454258520285</v>
+        <v>11834.37132671643</v>
       </c>
       <c r="C66">
-        <v>882.9773160637247</v>
+        <v>9728.299578828648</v>
       </c>
       <c r="D66">
-        <v>-0.7322126201037821</v>
+        <v>-1.265484077650769</v>
       </c>
       <c r="E66">
-        <v>0.5760419503903176</v>
+        <v>0.8260355194843741</v>
       </c>
       <c r="F66">
-        <v>-0.7788719254835914</v>
+        <v>0.6354701430084246</v>
       </c>
       <c r="G66">
-        <v>709.4667519285349</v>
+        <v>9299.633752940019</v>
       </c>
       <c r="H66">
-        <v>442.2410391811813</v>
+        <v>12095.19029334998</v>
       </c>
       <c r="I66">
-        <v>4.059357182179587</v>
+        <v>2.49451466967959</v>
       </c>
       <c r="J66">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="67" spans="2:10">
       <c r="B67">
-        <v>566.5611645025268</v>
+        <v>11914.55145948209</v>
       </c>
       <c r="C67">
-        <v>876.5292868400905</v>
+        <v>10272.27021500654</v>
       </c>
       <c r="D67">
-        <v>-0.7789400614679897</v>
+        <v>-1.346282194487357</v>
       </c>
       <c r="E67">
-        <v>0.6424355587478404</v>
+        <v>0.7479030330011289</v>
       </c>
       <c r="F67">
-        <v>-0.7476551115545208</v>
+        <v>0.6726012594869033</v>
       </c>
       <c r="G67">
-        <v>702.7420419063869</v>
+        <v>9210.97694387606</v>
       </c>
       <c r="H67">
-        <v>433.450561349227</v>
+        <v>12162.17972622771</v>
       </c>
       <c r="I67">
-        <v>4.010167425235143</v>
+        <v>2.41065077463242</v>
       </c>
       <c r="J67">
-        <v>-0.7870361111111112</v>
+        <v>-1.341822320754717</v>
       </c>
     </row>
     <row r="68" spans="2:10">
       <c r="B68">
-        <v>584.284006490354</v>
+        <v>10714.16106336373</v>
       </c>
       <c r="C68">
-        <v>848.5495791081088</v>
+        <v>11400.49469843689</v>
       </c>
       <c r="D68">
-        <v>-0.8364248534268472</v>
+        <v>-1.421071879405776</v>
       </c>
       <c r="E68">
-        <v>0.7057742204208318</v>
+        <v>0.6825886908751723</v>
       </c>
       <c r="F68">
-        <v>-0.7233647451536749</v>
+        <v>0.7239664351581752</v>
       </c>
       <c r="G68">
-        <v>695.1727227434844</v>
+        <v>9123.376458102062</v>
       </c>
       <c r="H68">
-        <v>424.5043605370041</v>
+        <v>12240.72365060269</v>
       </c>
       <c r="I68">
-        <v>3.95808409190181</v>
+        <v>2.321853604821099</v>
       </c>
       <c r="J68">
-        <v>-0.8333333333333334</v>
+        <v>-1.420754716981132</v>
       </c>
     </row>
     <row r="69" spans="2:10">
       <c r="B69">
-        <v>608.5165810210644</v>
+        <v>9647.076654245864</v>
       </c>
       <c r="C69">
-        <v>817.9139794349682</v>
+        <v>12334.26332701403</v>
       </c>
       <c r="D69">
-        <v>-0.880019133030408</v>
+        <v>-1.505791520805382</v>
       </c>
       <c r="E69">
-        <v>0.7385440781384003</v>
+        <v>0.624172276389753</v>
       </c>
       <c r="F69">
-        <v>-0.6903477378352689</v>
+        <v>0.765076504915231</v>
       </c>
       <c r="G69">
-        <v>686.7021104702355</v>
+        <v>9038.625884264196</v>
       </c>
       <c r="H69">
-        <v>415.4899049701365</v>
+        <v>12331.50449959121</v>
       </c>
       <c r="I69">
-        <v>3.903107182179587</v>
+        <v>2.228123160245628</v>
       </c>
       <c r="J69">
-        <v>-0.8796305555555555</v>
+        <v>-1.499687113207547</v>
       </c>
     </row>
     <row r="70" spans="2:10">
       <c r="B70">
-        <v>632.8082999402807</v>
+        <v>9083.071743674092</v>
       </c>
       <c r="C70">
-        <v>774.2514156447306</v>
+        <v>13166.77036578329</v>
       </c>
       <c r="D70">
-        <v>-0.9297236983675206</v>
+        <v>-1.585069102198779</v>
       </c>
       <c r="E70">
-        <v>0.7509821184756879</v>
+        <v>0.5073301141774013</v>
       </c>
       <c r="F70">
-        <v>-0.6614942407011597</v>
+        <v>0.8107102878900386</v>
       </c>
       <c r="G70">
-        <v>677.2777419925635</v>
+        <v>8958.750018479723</v>
       </c>
       <c r="H70">
-        <v>406.5052934672472</v>
+        <v>12434.99337537239</v>
       </c>
       <c r="I70">
-        <v>3.845236696068476</v>
+        <v>2.129459440906005</v>
       </c>
       <c r="J70">
-        <v>-0.9259277777777777</v>
+        <v>-1.578619509433962</v>
       </c>
     </row>
     <row r="71" spans="2:10">
       <c r="B71">
-        <v>626.1836471211751</v>
+        <v>8248.366612021766</v>
       </c>
       <c r="C71">
-        <v>750.9331042222915</v>
+        <v>12810.65555744386</v>
       </c>
       <c r="D71">
-        <v>-0.9660695032575835</v>
+        <v>-1.644984607665581</v>
       </c>
       <c r="E71">
-        <v>0.8070526691522113</v>
+        <v>0.4638389682271912</v>
       </c>
       <c r="F71">
-        <v>-0.5791985605789283</v>
+        <v>0.896231643746867</v>
       </c>
       <c r="G71">
-        <v>666.8530824539274</v>
+        <v>8885.99197742549</v>
       </c>
       <c r="H71">
-        <v>397.6595852383974</v>
+        <v>12551.3897176767</v>
       </c>
       <c r="I71">
-        <v>3.784472737735143</v>
+        <v>2.025862594797514</v>
       </c>
       <c r="J71">
-        <v>-0.9722233333333332</v>
+        <v>-1.657549537735849</v>
       </c>
     </row>
     <row r="72" spans="2:10">
       <c r="B72">
-        <v>726.3991506113756</v>
+        <v>8078.999014676429</v>
       </c>
       <c r="C72">
-        <v>727.7689589601367</v>
+        <v>11741.52529583843</v>
       </c>
       <c r="D72">
-        <v>-1.012265067338218</v>
+        <v>-1.741037742792994</v>
       </c>
       <c r="E72">
-        <v>0.7894208290524989</v>
+        <v>0.3606677516392034</v>
       </c>
       <c r="F72">
-        <v>-0.5545173078430222</v>
+        <v>0.9195446889957283</v>
       </c>
       <c r="G72">
-        <v>655.3894164842491</v>
+        <v>8822.787832826492</v>
       </c>
       <c r="H72">
-        <v>389.0729543637528</v>
+        <v>12680.55731329133</v>
       </c>
       <c r="I72">
-        <v>3.720815272457365</v>
+        <v>1.917332621920156</v>
       </c>
       <c r="J72">
-        <v>-1.018519444444444</v>
+        <v>-1.736479566037736</v>
       </c>
     </row>
     <row r="73" spans="2:10">
       <c r="B73">
-        <v>769.0259775221195</v>
+        <v>7617.574410895429</v>
       </c>
       <c r="C73">
-        <v>719.5549939175633</v>
+        <v>12032.4907823611</v>
       </c>
       <c r="D73">
-        <v>-1.069141923643693</v>
+        <v>-1.821767984800531</v>
       </c>
       <c r="E73">
-        <v>0.8225918556183363</v>
+        <v>0.2821012428413686</v>
       </c>
       <c r="F73">
-        <v>-0.5059013170266246</v>
+        <v>0.9508258852150068</v>
       </c>
       <c r="G73">
-        <v>642.857884580494</v>
+        <v>8771.726547201404</v>
       </c>
       <c r="H73">
-        <v>380.8766063528581</v>
+        <v>12821.95893382677</v>
       </c>
       <c r="I73">
-        <v>3.654264334957365</v>
+        <v>1.803869522273929</v>
       </c>
       <c r="J73">
-        <v>-1.064815</v>
+        <v>-1.815409594339622</v>
       </c>
     </row>
     <row r="74" spans="2:10">
       <c r="B74">
-        <v>702.5532277333771</v>
+        <v>7094.517941539535</v>
       </c>
       <c r="C74">
-        <v>700.5619778445492</v>
+        <v>11168.40407344977</v>
       </c>
       <c r="D74">
-        <v>-1.103486480180195</v>
+        <v>-1.903139924568534</v>
       </c>
       <c r="E74">
-        <v>0.9264832061083592</v>
+        <v>0.09851076623043331</v>
       </c>
       <c r="F74">
-        <v>-0.4064242031296246</v>
+        <v>0.9985134341456723</v>
       </c>
       <c r="G74">
-        <v>629.2416792621929</v>
+        <v>8735.493330911326</v>
       </c>
       <c r="H74">
-        <v>373.2124313985745</v>
+        <v>12974.5922187363</v>
       </c>
       <c r="I74">
-        <v>3.58481989051292</v>
+        <v>1.685473295858835</v>
       </c>
       <c r="J74">
-        <v>-1.111111111111111</v>
+        <v>-1.894339622641509</v>
       </c>
     </row>
     <row r="75" spans="2:10">
       <c r="B75">
-        <v>673.0209788657938</v>
+        <v>6978.872738382785</v>
       </c>
       <c r="C75">
-        <v>677.3649385486736</v>
+        <v>11359.14735323026</v>
       </c>
       <c r="D75">
-        <v>-1.159990312062591</v>
+        <v>-1.977471584772641</v>
       </c>
       <c r="E75">
-        <v>0.9389224404460047</v>
+        <v>-0.0376634676648557</v>
       </c>
       <c r="F75">
-        <v>-0.3603456311180293</v>
+        <v>1.018712384006708</v>
       </c>
       <c r="G75">
-        <v>614.5383514276789</v>
+        <v>8716.794844990642</v>
       </c>
       <c r="H75">
-        <v>366.2323346411707</v>
+        <v>13136.9303707876</v>
       </c>
       <c r="I75">
-        <v>3.512481973846254</v>
+        <v>1.562143942674873</v>
       </c>
       <c r="J75">
-        <v>-1.157406666666667</v>
+        <v>-1.973269650943396</v>
       </c>
     </row>
     <row r="76" spans="2:10">
       <c r="B76">
-        <v>641.7939532089121</v>
+        <v>6853.253432656322</v>
       </c>
       <c r="C76">
-        <v>663.7678047808553</v>
+        <v>11094.018093704</v>
       </c>
       <c r="D76">
-        <v>-1.210206998785463</v>
+        <v>-2.055093159793724</v>
       </c>
       <c r="E76">
-        <v>0.9355552668419185</v>
+        <v>-0.1515173473927565</v>
       </c>
       <c r="F76">
-        <v>-0.2935734354757315</v>
+        <v>0.9984823248518969</v>
       </c>
       <c r="G76">
-        <v>598.7622161809732</v>
+        <v>8718.265281525037</v>
       </c>
       <c r="H76">
-        <v>360.0972066870723</v>
+        <v>13306.87195216955</v>
       </c>
       <c r="I76">
-        <v>3.437250550235142</v>
+        <v>1.433881462722042</v>
       </c>
       <c r="J76">
-        <v>-1.203702777777778</v>
+        <v>-2.052199679245283</v>
       </c>
     </row>
     <row r="77" spans="2:10">
       <c r="B77">
-        <v>637.536826251355</v>
+        <v>6967.631656413022</v>
       </c>
       <c r="C77">
-        <v>644.5277595642958</v>
+        <v>11521.3551143826</v>
       </c>
       <c r="D77">
-        <v>-1.25077208787303</v>
+        <v>-2.131368648064129</v>
       </c>
       <c r="E77">
-        <v>0.9491380473286641</v>
+        <v>-0.2705381462339746</v>
       </c>
       <c r="F77">
-        <v>-0.2029280441614563</v>
+        <v>0.9815167065944227</v>
       </c>
       <c r="G77">
-        <v>581.9467899654614</v>
+        <v>8742.353198797007</v>
       </c>
       <c r="H77">
-        <v>354.975479976162</v>
+        <v>13481.70478862665</v>
       </c>
       <c r="I77">
-        <v>3.359125654401809</v>
+        <v>1.300685856000344</v>
       </c>
       <c r="J77">
-        <v>-1.249998333333333</v>
+        <v>-2.13112970754717</v>
       </c>
     </row>
     <row r="78" spans="2:10">
       <c r="B78">
-        <v>567.4653543816472</v>
+        <v>6986.087629686133</v>
       </c>
       <c r="C78">
-        <v>620.3402046405733</v>
+        <v>12453.00558305734</v>
       </c>
       <c r="D78">
-        <v>-1.291874050618358</v>
+        <v>-2.215663095771262</v>
       </c>
       <c r="E78">
-        <v>1.016868118593397</v>
+        <v>-0.422966107887335</v>
       </c>
       <c r="F78">
-        <v>-0.1174964766769344</v>
+        <v>0.9256493931167438</v>
       </c>
       <c r="G78">
-        <v>564.1472276930488</v>
+        <v>8791.190108231784</v>
       </c>
       <c r="H78">
-        <v>351.0412341578643</v>
+        <v>13658.08959764324</v>
       </c>
       <c r="I78">
-        <v>3.278107251624032</v>
+        <v>1.162557122509778</v>
       </c>
       <c r="J78">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="79" spans="2:10">
       <c r="B79">
-        <v>561.6075706757499</v>
+        <v>7133.371321957037</v>
       </c>
       <c r="C79">
-        <v>648.9229484685718</v>
+        <v>13235.25079451816</v>
       </c>
       <c r="D79">
-        <v>-1.29225363702554</v>
+        <v>-2.215682034622126</v>
       </c>
       <c r="E79">
-        <v>0.9824384033132983</v>
+        <v>-0.5295705203272804</v>
       </c>
       <c r="F79">
-        <v>-0.05409485118283964</v>
+        <v>0.8300197518454837</v>
       </c>
       <c r="G79">
-        <v>546.0876537533184</v>
+        <v>8863.848273968217</v>
       </c>
       <c r="H79">
-        <v>348.5604084155558</v>
+        <v>13826.07005938441</v>
       </c>
       <c r="I79">
-        <v>3.197088848846254</v>
+        <v>1.024428389019212</v>
       </c>
       <c r="J79">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="80" spans="2:10">
       <c r="B80">
-        <v>521.0037046135517</v>
+        <v>7727.217657423661</v>
       </c>
       <c r="C80">
-        <v>644.6107132340129</v>
+        <v>14484.40341387975</v>
       </c>
       <c r="D80">
-        <v>-1.290245759027836</v>
+        <v>-2.218595776909898</v>
       </c>
       <c r="E80">
-        <v>0.9842592856614375</v>
+        <v>-0.5934629790162285</v>
       </c>
       <c r="F80">
-        <v>0.03677183099935597</v>
+        <v>0.8087139875174424</v>
       </c>
       <c r="G80">
-        <v>527.8865460286146</v>
+        <v>8958.943613856383</v>
       </c>
       <c r="H80">
-        <v>347.5492779383078</v>
+        <v>13982.44627530779</v>
       </c>
       <c r="I80">
-        <v>3.116070446068476</v>
+        <v>0.886299655528646</v>
       </c>
       <c r="J80">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="81" spans="2:10">
       <c r="B81">
-        <v>530.420958846244</v>
+        <v>8547.130728923172</v>
       </c>
       <c r="C81">
-        <v>670.0984118457199</v>
+        <v>15800.95252074422</v>
       </c>
       <c r="D81">
-        <v>-1.301364531763732</v>
+        <v>-2.208863574427383</v>
       </c>
       <c r="E81">
-        <v>0.9782152356509204</v>
+        <v>-0.7439803801118491</v>
       </c>
       <c r="F81">
-        <v>0.07469193125639939</v>
+        <v>0.6749752319724744</v>
       </c>
       <c r="G81">
-        <v>509.6633109183765</v>
+        <v>9074.664634843219</v>
       </c>
       <c r="H81">
-        <v>348.0144761382992</v>
+        <v>14124.23939882484</v>
       </c>
       <c r="I81">
-        <v>3.035052043290699</v>
+        <v>0.7481709220380799</v>
       </c>
       <c r="J81">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="82" spans="2:10">
       <c r="B82">
-        <v>476.7919280357418</v>
+        <v>10409.2946238783</v>
       </c>
       <c r="C82">
-        <v>662.9192784349752</v>
+        <v>16971.79569532602</v>
       </c>
       <c r="D82">
-        <v>-1.307084395947609</v>
+        <v>-2.213063010334563</v>
       </c>
       <c r="E82">
-        <v>0.954764946233901</v>
+        <v>-0.8261217015593577</v>
       </c>
       <c r="F82">
-        <v>0.2015028410398609</v>
+        <v>0.5796086200879471</v>
       </c>
       <c r="G82">
-        <v>491.5374999863635</v>
+        <v>9208.806940521308</v>
       </c>
       <c r="H82">
-        <v>349.9529511330333</v>
+        <v>14248.74838003634</v>
       </c>
       <c r="I82">
-        <v>2.954033640512921</v>
+        <v>0.6100421885475138</v>
       </c>
       <c r="J82">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="83" spans="2:10">
       <c r="B83">
-        <v>479.3303596806539</v>
+        <v>11658.79437359783</v>
       </c>
       <c r="C83">
-        <v>701.1363777660185</v>
+        <v>16105.68204373278</v>
       </c>
       <c r="D83">
-        <v>-1.2968989910186</v>
+        <v>-2.215673865247116</v>
       </c>
       <c r="E83">
-        <v>0.945232084818338</v>
+        <v>-0.8747132939022481</v>
       </c>
       <c r="F83">
-        <v>0.2534050088953116</v>
+        <v>0.4363174673893293</v>
       </c>
       <c r="G83">
-        <v>473.6280256555468</v>
+        <v>9358.815223184261</v>
       </c>
       <c r="H83">
-        <v>353.3519857668828</v>
+        <v>14353.60141865455</v>
       </c>
       <c r="I83">
-        <v>2.873015237735144</v>
+        <v>0.4719134550569478</v>
       </c>
       <c r="J83">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="84" spans="2:10">
       <c r="B84">
-        <v>491.994517034887</v>
+        <v>11126.24411612444</v>
       </c>
       <c r="C84">
-        <v>681.6132820054103</v>
+        <v>15406.74148194726</v>
       </c>
       <c r="D84">
-        <v>-1.29442161010124</v>
+        <v>-2.203927913577147</v>
       </c>
       <c r="E84">
-        <v>0.9266597220129287</v>
+        <v>-0.9124955343216318</v>
       </c>
       <c r="F84">
-        <v>0.3407685780285628</v>
+        <v>0.3474351817480925</v>
       </c>
       <c r="G84">
-        <v>456.0523810960143</v>
+        <v>9521.831940472319</v>
       </c>
       <c r="H84">
-        <v>358.1892810406146</v>
+        <v>14436.80114497372</v>
       </c>
       <c r="I84">
-        <v>2.791996834957366</v>
+        <v>0.3337847215663817</v>
       </c>
       <c r="J84">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="85" spans="2:10">
       <c r="B85">
-        <v>464.9147090459375</v>
+        <v>10334.36795021801</v>
       </c>
       <c r="C85">
-        <v>712.8374924125196</v>
+        <v>15087.95424599678</v>
       </c>
       <c r="D85">
-        <v>-1.297487825124379</v>
+        <v>-2.21117398003265</v>
       </c>
       <c r="E85">
-        <v>0.9045301427277279</v>
+        <v>-1.016718506468299</v>
       </c>
       <c r="F85">
-        <v>0.4599607044777565</v>
+        <v>0.1732427146561864</v>
       </c>
       <c r="G85">
-        <v>438.9258694237311</v>
+        <v>9694.751749355546</v>
       </c>
       <c r="H85">
-        <v>364.433102401563</v>
+        <v>14496.76266822612</v>
       </c>
       <c r="I85">
-        <v>2.710978432179588</v>
+        <v>0.1956559880758157</v>
       </c>
       <c r="J85">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="86" spans="2:10">
       <c r="B86">
-        <v>506.3219970998161</v>
+        <v>10119.71025959264</v>
       </c>
       <c r="C86">
-        <v>709.5165261393573</v>
+        <v>14685.1746379547</v>
       </c>
       <c r="D86">
-        <v>-1.293692081223835</v>
+        <v>-2.212567556208316</v>
       </c>
       <c r="E86">
-        <v>0.8936561734820597</v>
+        <v>-1.001882365268206</v>
       </c>
       <c r="F86">
-        <v>0.502661155392081</v>
+        <v>0.05547598604694722</v>
       </c>
       <c r="G86">
-        <v>422.3608472669126</v>
+        <v>9874.280660529128</v>
       </c>
       <c r="H86">
-        <v>372.0424879347323</v>
+        <v>14532.34376753161</v>
       </c>
       <c r="I86">
-        <v>2.629960029401811</v>
+        <v>0.05752725458524965</v>
       </c>
       <c r="J86">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="87" spans="2:10">
       <c r="B87">
-        <v>507.0972397178606</v>
+        <v>10325.58308828375</v>
       </c>
       <c r="C87">
-        <v>751.0296592746662</v>
+        <v>14400.03011296832</v>
       </c>
       <c r="D87">
-        <v>-1.302959680920408</v>
+        <v>-2.218600796580589</v>
       </c>
       <c r="E87">
-        <v>0.8394805689738831</v>
+        <v>-1.011890717504035</v>
       </c>
       <c r="F87">
-        <v>0.581438432700898</v>
+        <v>-0.07158483591752023</v>
       </c>
       <c r="G87">
-        <v>406.4659876625132</v>
+        <v>10056.99878637504</v>
       </c>
       <c r="H87">
-        <v>380.9675170890108</v>
+        <v>14542.86665032657</v>
       </c>
       <c r="I87">
-        <v>2.548941626624033</v>
+        <v>-0.08060147890531638</v>
       </c>
       <c r="J87">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="88" spans="2:10">
       <c r="B88">
-        <v>488.1679174182341</v>
+        <v>10094.15162826968</v>
       </c>
       <c r="C88">
-        <v>801.7679605402208</v>
+        <v>14830.16079034545</v>
       </c>
       <c r="D88">
-        <v>-1.296312686226506</v>
+        <v>-2.203304564019273</v>
       </c>
       <c r="E88">
-        <v>0.7715777645480352</v>
+        <v>-0.9792793343749631</v>
       </c>
       <c r="F88">
-        <v>0.6420246342686527</v>
+        <v>-0.2257656685392188</v>
       </c>
       <c r="G88">
-        <v>391.3455671185154</v>
+        <v>10239.42548718972</v>
       </c>
       <c r="H88">
-        <v>391.1496381755497</v>
+        <v>14528.13086379065</v>
       </c>
       <c r="I88">
-        <v>2.467923223846256</v>
+        <v>-0.2187302123958824</v>
       </c>
       <c r="J88">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="89" spans="2:10">
       <c r="B89">
-        <v>525.8094199186564</v>
+        <v>9976.810221018724</v>
       </c>
       <c r="C89">
-        <v>796.8764709392942</v>
+        <v>15496.38903105817</v>
       </c>
       <c r="D89">
-        <v>-1.294393262583416</v>
+        <v>-2.202849390861714</v>
       </c>
       <c r="E89">
-        <v>0.7194995193879042</v>
+        <v>-0.9266144384360779</v>
       </c>
       <c r="F89">
-        <v>0.6939766378027739</v>
+        <v>-0.3603667846957871</v>
       </c>
       <c r="G89">
-        <v>377.0987815191737</v>
+        <v>10418.08567469219</v>
       </c>
       <c r="H89">
-        <v>402.5220524897875</v>
+        <v>14488.41711331882</v>
       </c>
       <c r="I89">
-        <v>2.386904821068478</v>
+        <v>-0.3568589458864485</v>
       </c>
       <c r="J89">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="90" spans="2:10">
       <c r="B90">
-        <v>543.4172508933398</v>
+        <v>10743.24432149205</v>
       </c>
       <c r="C90">
-        <v>822.3166501462957</v>
+        <v>16537.83975327423</v>
       </c>
       <c r="D90">
-        <v>-1.303953539751942</v>
+        <v>-2.213883806662337</v>
       </c>
       <c r="E90">
-        <v>0.6658482174388557</v>
+        <v>-0.8949281723025225</v>
       </c>
       <c r="F90">
-        <v>0.7604715952898237</v>
+        <v>-0.4658564325838673</v>
       </c>
       <c r="G90">
-        <v>363.8190953611399</v>
+        <v>10589.57600978194</v>
       </c>
       <c r="H90">
-        <v>415.0101525371294</v>
+        <v>14424.48191529952</v>
       </c>
       <c r="I90">
-        <v>2.3058864182907</v>
+        <v>-0.4949876793770145</v>
       </c>
       <c r="J90">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="91" spans="2:10">
       <c r="B91">
-        <v>585.4741828562314</v>
+        <v>11327.81517878508</v>
       </c>
       <c r="C91">
-        <v>827.8029500887309</v>
+        <v>17645.94837947038</v>
       </c>
       <c r="D91">
-        <v>-1.305284253828176</v>
+        <v>-2.214988786248572</v>
       </c>
       <c r="E91">
-        <v>0.6273768432263095</v>
+        <v>-0.8148195426940353</v>
       </c>
       <c r="F91">
-        <v>0.7910838085640637</v>
+        <v>-0.6108147856198315</v>
       </c>
       <c r="G91">
-        <v>351.5936285897382</v>
+        <v>10750.62973352998</v>
       </c>
       <c r="H91">
-        <v>428.5320114873493</v>
+        <v>14337.54318605962</v>
       </c>
       <c r="I91">
-        <v>2.224868015512923</v>
+        <v>-0.6331164128675806</v>
       </c>
       <c r="J91">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="92" spans="2:10">
       <c r="B92">
-        <v>653.8382992606565</v>
+        <v>12611.23553776856</v>
       </c>
       <c r="C92">
-        <v>780.7035715407312</v>
+        <v>15673.10940968269</v>
       </c>
       <c r="D92">
-        <v>-1.291647332179927</v>
+        <v>-2.207563154727942</v>
       </c>
       <c r="E92">
-        <v>0.5320527443042709</v>
+        <v>-0.7020462029741299</v>
       </c>
       <c r="F92">
-        <v>0.8521775060854789</v>
+        <v>-0.6935613251248494</v>
       </c>
       <c r="G92">
-        <v>340.5025850579817</v>
+        <v>10898.17889642288</v>
       </c>
       <c r="H92">
-        <v>442.9989206467023</v>
+        <v>14229.25704149549</v>
       </c>
       <c r="I92">
-        <v>2.143849612735145</v>
+        <v>-0.7712451463581467</v>
       </c>
       <c r="J92">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="93" spans="2:10">
       <c r="B93">
-        <v>655.5028828813114</v>
+        <v>14519.73251724586</v>
       </c>
       <c r="C93">
-        <v>726.1164897103547</v>
+        <v>14123.16434379023</v>
       </c>
       <c r="D93">
-        <v>-1.301813191314664</v>
+        <v>-2.212299351020772</v>
       </c>
       <c r="E93">
-        <v>0.4781449159775126</v>
+        <v>-0.58316059183118</v>
       </c>
       <c r="F93">
-        <v>0.8838106846546577</v>
+        <v>-0.7807861075341257</v>
       </c>
       <c r="G93">
-        <v>330.6187263578669</v>
+        <v>11029.41280044032</v>
       </c>
       <c r="H93">
-        <v>458.3159714217196</v>
+        <v>14101.68624933952</v>
       </c>
       <c r="I93">
-        <v>2.062831209957368</v>
+        <v>-0.9093738798487128</v>
       </c>
       <c r="J93">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="94" spans="2:10">
       <c r="B94">
-        <v>621.353820326343</v>
+        <v>16172.07972844526</v>
       </c>
       <c r="C94">
-        <v>763.3599755658981</v>
+        <v>12432.38168311058</v>
       </c>
       <c r="D94">
-        <v>-1.295885668616233</v>
+        <v>-2.213380575302639</v>
       </c>
       <c r="E94">
-        <v>0.3725163824776969</v>
+        <v>-0.4452634673180068</v>
       </c>
       <c r="F94">
-        <v>0.9410890658517012</v>
+        <v>-0.847853393242444</v>
       </c>
       <c r="G94">
-        <v>322.0068944758156</v>
+        <v>11141.83154068964</v>
       </c>
       <c r="H94">
-        <v>474.3826779567745</v>
+        <v>13957.260935022</v>
       </c>
       <c r="I94">
-        <v>1.98181280717959</v>
+        <v>-1.047502613339279</v>
       </c>
       <c r="J94">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="95" spans="2:10">
       <c r="B95">
-        <v>533.3135320064657</v>
+        <v>14978.98917262893</v>
       </c>
       <c r="C95">
-        <v>699.8024645595883</v>
+        <v>12120.0790686967</v>
       </c>
       <c r="D95">
-        <v>-1.292037409465549</v>
+        <v>-2.210465973919244</v>
       </c>
       <c r="E95">
-        <v>0.308041080050569</v>
+        <v>-0.3820847476508544</v>
       </c>
       <c r="F95">
-        <v>0.9638081269713732</v>
+        <v>-0.9122817711744746</v>
       </c>
       <c r="G95">
-        <v>314.7235864038329</v>
+        <v>11233.29362667052</v>
       </c>
       <c r="H95">
-        <v>491.0936363606747</v>
+        <v>13798.73228965156</v>
       </c>
       <c r="I95">
-        <v>1.900794404401812</v>
+        <v>-1.185631346829845</v>
       </c>
       <c r="J95">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="96" spans="2:10">
       <c r="B96">
-        <v>525.1022155116137</v>
+        <v>14238.4083901648</v>
       </c>
       <c r="C96">
-        <v>734.1433611034211</v>
+        <v>11582.44038192854</v>
       </c>
       <c r="D96">
-        <v>-1.299317324187814</v>
+        <v>-2.201597281127696</v>
       </c>
       <c r="E96">
-        <v>0.248615894119965</v>
+        <v>-0.2430561538014244</v>
       </c>
       <c r="F96">
-        <v>0.968228539226394</v>
+        <v>-0.9802910624705056</v>
       </c>
       <c r="G96">
-        <v>308.8165834970999</v>
+        <v>11302.05677602119</v>
       </c>
       <c r="H96">
-        <v>508.3392161974949</v>
+        <v>13629.1201619415</v>
       </c>
       <c r="I96">
-        <v>1.819776001624034</v>
+        <v>-1.323760080320411</v>
       </c>
       <c r="J96">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="97" spans="2:10">
       <c r="B97">
-        <v>472.6825414039716</v>
+        <v>13131.83925023906</v>
       </c>
       <c r="C97">
-        <v>694.7647267618967</v>
+        <v>11276.81734456471</v>
       </c>
       <c r="D97">
-        <v>-1.295870637050612</v>
+        <v>-2.214351434169723</v>
       </c>
       <c r="E97">
-        <v>0.2006237309615109</v>
+        <v>-0.1533356235553358</v>
       </c>
       <c r="F97">
-        <v>1.003988677987012</v>
+        <v>-0.9804409635024119</v>
       </c>
       <c r="G97">
-        <v>304.3246380095582</v>
+        <v>11346.81110365684</v>
       </c>
       <c r="H97">
-        <v>526.0062797051988</v>
+        <v>13451.65553241538</v>
       </c>
       <c r="I97">
-        <v>1.738757598846256</v>
+        <v>-1.461888813810977</v>
       </c>
       <c r="J97">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="98" spans="2:10">
       <c r="B98">
-        <v>488.7213938777567</v>
+        <v>13079.94305036163</v>
       </c>
       <c r="C98">
-        <v>691.3493138251551</v>
+        <v>11686.53358602433</v>
       </c>
       <c r="D98">
-        <v>-1.297496207454759</v>
+        <v>-2.207566447294927</v>
       </c>
       <c r="E98">
-        <v>0.09616611305608472</v>
+        <v>0.04962084421349104</v>
       </c>
       <c r="F98">
-        <v>0.972886713475122</v>
+        <v>-1.038823100322716</v>
       </c>
       <c r="G98">
-        <v>301.2772188639379</v>
+        <v>11366.70407407254</v>
       </c>
       <c r="H98">
-        <v>543.9789240236958</v>
+        <v>13269.71896571424</v>
       </c>
       <c r="I98">
-        <v>1.657739196068478</v>
+        <v>4.683167759878043</v>
       </c>
       <c r="J98">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="99" spans="2:10">
       <c r="B99">
-        <v>440.0963296022066</v>
+        <v>13563.78370460345</v>
       </c>
       <c r="C99">
-        <v>696.7291017036036</v>
+        <v>11606.17853540062</v>
       </c>
       <c r="D99">
-        <v>-1.291781820742723</v>
+        <v>-2.20434827849378</v>
       </c>
       <c r="E99">
-        <v>-0.02497132955991136</v>
+        <v>0.1742162559871633</v>
       </c>
       <c r="F99">
-        <v>0.9849652604315651</v>
+        <v>-0.9929378790478528</v>
       </c>
       <c r="G99">
-        <v>299.6943183240764</v>
+        <v>11361.35674148867</v>
       </c>
       <c r="H99">
-        <v>562.139241563023</v>
+        <v>13086.7762134413</v>
       </c>
       <c r="I99">
-        <v>1.576720793290701</v>
+        <v>4.545039026387477</v>
       </c>
       <c r="J99">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="100" spans="2:10">
       <c r="B100">
-        <v>394.0631735640322</v>
+        <v>13479.35084796484</v>
       </c>
       <c r="C100">
-        <v>725.1597243379974</v>
+        <v>11908.86216388535</v>
       </c>
       <c r="D100">
-        <v>-1.292177928631848</v>
+        <v>-2.211507978523964</v>
       </c>
       <c r="E100">
-        <v>-0.108122444355622</v>
+        <v>0.3224536580872222</v>
       </c>
       <c r="F100">
-        <v>1.012209872313352</v>
+        <v>-0.9311580172545474</v>
       </c>
       <c r="G100">
-        <v>299.586320837832</v>
+        <v>11330.8709684764</v>
       </c>
       <c r="H100">
-        <v>580.3680935233428</v>
+        <v>12906.31219426074</v>
       </c>
       <c r="I100">
-        <v>1.495702390512923</v>
+        <v>4.406910292896911</v>
       </c>
       <c r="J100">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="101" spans="2:10">
       <c r="B101">
-        <v>392.6940218303467</v>
+        <v>13972.19389225239</v>
       </c>
       <c r="C101">
-        <v>755.5300386631321</v>
+        <v>12536.0886503215</v>
       </c>
       <c r="D101">
-        <v>-1.298366017660942</v>
+        <v>-2.208531079502173</v>
       </c>
       <c r="E101">
-        <v>-0.1675418842453221</v>
+        <v>0.4159870767738998</v>
       </c>
       <c r="F101">
-        <v>1.002071406985811</v>
+        <v>-0.9034896333846291</v>
       </c>
       <c r="G101">
-        <v>300.9539349110374</v>
+        <v>11275.82748555413</v>
       </c>
       <c r="H101">
-        <v>598.545891492158</v>
+        <v>12731.76460887857</v>
       </c>
       <c r="I101">
-        <v>1.414683987735145</v>
+        <v>4.268781559406345</v>
       </c>
       <c r="J101">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="102" spans="2:10">
       <c r="B102">
-        <v>389.3692221373842</v>
+        <v>14848.2775796037</v>
       </c>
       <c r="C102">
-        <v>711.6482508756425</v>
+        <v>13234.99234552715</v>
       </c>
       <c r="D102">
-        <v>-1.299852842501655</v>
+        <v>-2.215712699175641</v>
       </c>
       <c r="E102">
-        <v>-0.242520322250048</v>
+        <v>0.5736532161711414</v>
       </c>
       <c r="F102">
-        <v>0.9877098678412268</v>
+        <v>-0.8387150675370737</v>
       </c>
       <c r="G102">
-        <v>303.7881884594229</v>
+        <v>11197.2748287179</v>
       </c>
       <c r="H102">
-        <v>616.5533819911631</v>
+        <v>12566.45845448942</v>
       </c>
       <c r="I102">
-        <v>1.333665584957367</v>
+        <v>4.130652825915779</v>
       </c>
       <c r="J102">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="103" spans="2:10">
       <c r="B103">
-        <v>386.2612209634388</v>
+        <v>16675.6568691338</v>
       </c>
       <c r="C103">
-        <v>714.233890604999</v>
+        <v>11573.87968481264</v>
       </c>
       <c r="D103">
-        <v>-1.296535214626529</v>
+        <v>-2.212208870769262</v>
       </c>
       <c r="E103">
-        <v>-0.2984657493845486</v>
+        <v>0.6047010680309628</v>
       </c>
       <c r="F103">
-        <v>0.9545365654856354</v>
+        <v>-0.7452187734647316</v>
       </c>
       <c r="G103">
-        <v>308.0704876690062</v>
+        <v>11096.70936563754</v>
       </c>
       <c r="H103">
-        <v>634.2724288257954</v>
+        <v>12413.54268613837</v>
       </c>
       <c r="I103">
-        <v>1.252647182179589</v>
+        <v>3.992524092425213</v>
       </c>
       <c r="J103">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="104" spans="2:10">
       <c r="B104">
-        <v>377.9260746985652</v>
+        <v>14150.06468315053</v>
       </c>
       <c r="C104">
-        <v>802.0831368622785</v>
+        <v>10164.79284002251</v>
       </c>
       <c r="D104">
-        <v>-1.299211603248796</v>
+        <v>-2.20589606872259</v>
       </c>
       <c r="E104">
-        <v>-0.388666907453171</v>
+        <v>0.7174113083968979</v>
       </c>
       <c r="F104">
-        <v>0.9051301520911189</v>
+        <v>-0.679118021787232</v>
       </c>
       <c r="G104">
-        <v>313.7727389787978</v>
+        <v>10976.04679100389</v>
       </c>
       <c r="H104">
-        <v>651.586788104968</v>
+        <v>12275.93023155036</v>
       </c>
       <c r="I104">
-        <v>1.171628779401811</v>
+        <v>3.854395358934647</v>
       </c>
       <c r="J104">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="105" spans="2:10">
       <c r="B105">
-        <v>362.0895489707589</v>
+        <v>13020.14982634037</v>
       </c>
       <c r="C105">
-        <v>759.4544975310212</v>
+        <v>9387.706100674373</v>
       </c>
       <c r="D105">
-        <v>-1.291147215144351</v>
+        <v>-2.214507486094446</v>
       </c>
       <c r="E105">
-        <v>-0.4322372890099014</v>
+        <v>0.8270998539171086</v>
       </c>
       <c r="F105">
-        <v>0.9222283681990929</v>
+        <v>-0.5314547308578009</v>
       </c>
       <c r="G105">
-        <v>320.8575333855713</v>
+        <v>10837.58563401903</v>
       </c>
       <c r="H105">
-        <v>668.3828708465493</v>
+        <v>12156.24250209837</v>
       </c>
       <c r="I105">
-        <v>1.090610376624034</v>
+        <v>3.716266625444081</v>
       </c>
       <c r="J105">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="106" spans="2:10">
       <c r="B106">
-        <v>365.2823851373673</v>
+        <v>11703.63722944567</v>
       </c>
       <c r="C106">
-        <v>815.4164159207841</v>
+        <v>8859.461611030434</v>
       </c>
       <c r="D106">
-        <v>-1.29505302847069</v>
+        <v>-2.21287550319906</v>
       </c>
       <c r="E106">
-        <v>-0.5341879237406943</v>
+        <v>0.9240332955451743</v>
       </c>
       <c r="F106">
-        <v>0.8380895579147951</v>
+        <v>-0.4329602889188267</v>
       </c>
       <c r="G106">
-        <v>329.2783918615843</v>
+        <v>10683.96347318356</v>
       </c>
       <c r="H106">
-        <v>684.5504881655994</v>
+        <v>12056.75945693387</v>
       </c>
       <c r="I106">
-        <v>1.009591973846256</v>
+        <v>3.578137891953515</v>
       </c>
       <c r="J106">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="107" spans="2:10">
       <c r="B107">
-        <v>354.1895270440811</v>
+        <v>10823.80294138127</v>
       </c>
       <c r="C107">
-        <v>811.5720376293631</v>
+        <v>8342.843706552881</v>
       </c>
       <c r="D107">
-        <v>-1.062359305306002</v>
+        <v>-1.821236719695188</v>
       </c>
       <c r="E107">
-        <v>-0.5601960934216477</v>
+        <v>0.9604343448829473</v>
       </c>
       <c r="F107">
-        <v>0.801744712365247</v>
+        <v>-0.346642228039149</v>
       </c>
       <c r="G107">
-        <v>338.9107737008229</v>
+        <v>10519.29137156124</v>
       </c>
       <c r="H107">
-        <v>699.8733396234071</v>
+        <v>11979.92890358694</v>
       </c>
       <c r="I107">
-        <v>0.9430412099573668</v>
+        <v>3.464675088297854</v>
       </c>
       <c r="J107">
-        <v>-1.064812222222222</v>
+        <v>-1.815404858490566</v>
       </c>
     </row>
     <row r="108" spans="2:10">
       <c r="B108">
-        <v>413.130612432307</v>
+        <v>10397.74286105089</v>
       </c>
       <c r="C108">
-        <v>835.3305623569288</v>
+        <v>8548.969296589365</v>
       </c>
       <c r="D108">
-        <v>-0.8338782565857139</v>
+        <v>-1.425713776643553</v>
       </c>
       <c r="E108">
-        <v>-0.601740246520132</v>
+        <v>0.9583444591236494</v>
       </c>
       <c r="F108">
-        <v>0.7865318537896644</v>
+        <v>-0.1991054500223288</v>
       </c>
       <c r="G108">
-        <v>349.4643525043909</v>
+        <v>10348.21903578085</v>
       </c>
       <c r="H108">
-        <v>714.4163184022254</v>
+        <v>11922.65151475904</v>
       </c>
       <c r="I108">
-        <v>0.8909580502351446</v>
+        <v>3.375878214477099</v>
       </c>
       <c r="J108">
-        <v>-0.8333305555555556</v>
+        <v>-1.420749981132076</v>
       </c>
     </row>
     <row r="109" spans="2:10">
       <c r="B109">
-        <v>349.0792266679383</v>
+        <v>10171.60009056849</v>
       </c>
       <c r="C109">
-        <v>864.2721635076698</v>
+        <v>8448.124679411527</v>
       </c>
       <c r="D109">
-        <v>-0.6056097353429698</v>
+        <v>-1.022505364646018</v>
       </c>
       <c r="E109">
-        <v>-0.6579422555075303</v>
+        <v>0.9810270259730854</v>
       </c>
       <c r="F109">
-        <v>0.7496346573842493</v>
+        <v>-0.168146189378185</v>
       </c>
       <c r="G109">
-        <v>360.6788659099993</v>
+        <v>10174.01289223364</v>
       </c>
       <c r="H109">
-        <v>728.288903270353</v>
+        <v>11881.07400635196</v>
       </c>
       <c r="I109">
-        <v>0.8533425294018113</v>
+        <v>3.31174727049125</v>
       </c>
       <c r="J109">
-        <v>-0.6018483333333332</v>
+        <v>-1.026095103773585</v>
       </c>
     </row>
     <row r="110" spans="2:10">
       <c r="B110">
-        <v>354.0792468694972</v>
+        <v>10016.84957079384</v>
       </c>
       <c r="C110">
-        <v>885.2086208422116</v>
+        <v>8528.618486199475</v>
       </c>
       <c r="D110">
-        <v>-1.107339886126752</v>
+        <v>-1.904388551401582</v>
       </c>
       <c r="E110">
-        <v>-0.7178371170525286</v>
+        <v>0.9934702638002155</v>
       </c>
       <c r="F110">
-        <v>0.7166157058147047</v>
+        <v>-0.01321243908561996</v>
       </c>
       <c r="G110">
-        <v>370.9518078926473</v>
+        <v>10019.40338737975</v>
       </c>
       <c r="H110">
-        <v>740.062062915119</v>
+        <v>11854.50961978206</v>
       </c>
       <c r="I110">
-        <v>0.7838980849573669</v>
+        <v>3.193351044076156</v>
       </c>
       <c r="J110">
-        <v>-1.111111111111111</v>
+        <v>-1.894339622641509</v>
       </c>
     </row>
     <row r="111" spans="2:10">
       <c r="B111">
-        <v>349.5784962251449</v>
+        <v>10399.14645952975</v>
       </c>
       <c r="C111">
-        <v>951.1652760118795</v>
+        <v>8172.783839135805</v>
       </c>
       <c r="D111">
-        <v>-0.8794641799013372</v>
+        <v>-1.491171542883454</v>
       </c>
       <c r="E111">
-        <v>-0.7471228878086541</v>
+        <v>1.031263898047324</v>
       </c>
       <c r="F111">
-        <v>0.7000077909906569</v>
+        <v>0.0588500344770916</v>
       </c>
       <c r="G111">
-        <v>381.9247048629027</v>
+        <v>9864.043997053181</v>
       </c>
       <c r="H111">
-        <v>751.0020887576478</v>
+        <v>11846.46127952523</v>
       </c>
       <c r="I111">
-        <v>0.7289212794018113</v>
+        <v>3.099620747495967</v>
       </c>
       <c r="J111">
-        <v>-0.8796288888888891</v>
+        <v>-1.499684745283019</v>
       </c>
     </row>
     <row r="112" spans="2:10">
       <c r="B112">
-        <v>394.6302362326544</v>
+        <v>10172.31053764229</v>
       </c>
       <c r="C112">
-        <v>948.2087462028491</v>
+        <v>8059.067403735197</v>
       </c>
       <c r="D112">
-        <v>-0.6447809922482277</v>
+        <v>-1.097640781604872</v>
       </c>
       <c r="E112">
-        <v>-0.772349344683195</v>
+        <v>0.9882102397489506</v>
       </c>
       <c r="F112">
-        <v>0.6278463800604875</v>
+        <v>0.1073043180439451</v>
       </c>
       <c r="G112">
-        <v>393.3850471034995</v>
+        <v>9709.919410047572</v>
       </c>
       <c r="H112">
-        <v>761.2359080231623</v>
+        <v>11852.93398352427</v>
       </c>
       <c r="I112">
-        <v>0.6884120780129224</v>
+        <v>3.030556380750684</v>
       </c>
       <c r="J112">
-        <v>-0.6481472222222223</v>
+        <v>-1.105029867924528</v>
       </c>
     </row>
     <row r="113" spans="2:10">
       <c r="B113">
-        <v>368.6086789644899</v>
+        <v>9449.125655508158</v>
       </c>
       <c r="C113">
-        <v>980.6162391386376</v>
+        <v>8533.453769317142</v>
       </c>
       <c r="D113">
-        <v>-0.4127234186388668</v>
+        <v>-0.7065673399395789</v>
       </c>
       <c r="E113">
-        <v>-0.805865533208121</v>
+        <v>0.9970952944421464</v>
       </c>
       <c r="F113">
-        <v>0.5922733061955919</v>
+        <v>0.1734795849248784</v>
       </c>
       <c r="G113">
-        <v>405.1498853839564</v>
+        <v>9557.908161389831</v>
       </c>
       <c r="H113">
-        <v>770.9144877070627</v>
+        <v>11869.88245620006</v>
       </c>
       <c r="I113">
-        <v>0.6623705155129224</v>
+        <v>2.986157943840307</v>
       </c>
       <c r="J113">
-        <v>-0.4166649999999998</v>
+        <v>-0.7103749905660378</v>
       </c>
     </row>
     <row r="114" spans="2:10">
       <c r="B114">
-        <v>353.2931053727879</v>
+        <v>9716.173496856876</v>
       </c>
       <c r="C114">
-        <v>915.2587060980064</v>
+        <v>8691.670144328007</v>
       </c>
       <c r="D114">
-        <v>-0.9248387183126531</v>
+        <v>-1.582771414519031</v>
       </c>
       <c r="E114">
-        <v>-0.7932338466496212</v>
+        <v>0.9378679284958308</v>
       </c>
       <c r="F114">
-        <v>0.5848456118167247</v>
+        <v>0.2524317043286436</v>
       </c>
       <c r="G114">
-        <v>415.4172850560546</v>
+        <v>9428.755074483888</v>
       </c>
       <c r="H114">
-        <v>778.9221383634155</v>
+        <v>11890.12057587402</v>
       </c>
       <c r="I114">
-        <v>0.6045000294018112</v>
+        <v>2.887494224500684</v>
       </c>
       <c r="J114">
-        <v>-0.9259277777777777</v>
+        <v>-1.578619509433962</v>
       </c>
     </row>
     <row r="115" spans="2:10">
       <c r="B115">
-        <v>421.8842357010788</v>
+        <v>9772.833131088331</v>
       </c>
       <c r="C115">
-        <v>886.4614912389743</v>
+        <v>8047.551426220097</v>
       </c>
       <c r="D115">
-        <v>-0.6999803148658451</v>
+        <v>-1.183820725045058</v>
       </c>
       <c r="E115">
-        <v>-0.8111734872958801</v>
+        <v>0.9610144745035557</v>
       </c>
       <c r="F115">
-        <v>0.5386321733998667</v>
+        <v>0.3533601891363741</v>
       </c>
       <c r="G115">
-        <v>426.0235128955765</v>
+        <v>9303.488932498301</v>
       </c>
       <c r="H115">
-        <v>786.2485333391439</v>
+        <v>11922.6537166544</v>
       </c>
       <c r="I115">
-        <v>0.561097182179589</v>
+        <v>2.813496434995967</v>
       </c>
       <c r="J115">
-        <v>-0.6944455555555554</v>
+        <v>-1.183964632075472</v>
       </c>
     </row>
     <row r="116" spans="2:10">
       <c r="B116">
-        <v>412.3273330725775</v>
+        <v>9837.194295782961</v>
       </c>
       <c r="C116">
-        <v>886.7960295064713</v>
+        <v>8886.810330893759</v>
       </c>
       <c r="D116">
-        <v>-0.4629902801958142</v>
+        <v>-0.7764842695412676</v>
       </c>
       <c r="E116">
-        <v>-0.860530045821648</v>
+        <v>0.9426677388760631</v>
       </c>
       <c r="F116">
-        <v>0.480775055431085</v>
+        <v>0.3366546188451476</v>
       </c>
       <c r="G116">
-        <v>436.8273955509986</v>
+        <v>9182.208321486165</v>
       </c>
       <c r="H116">
-        <v>793.0385470809796</v>
+        <v>11963.93752892837</v>
       </c>
       <c r="I116">
-        <v>0.5321619391240335</v>
+        <v>2.764164575326156</v>
       </c>
       <c r="J116">
-        <v>-0.4629638888888888</v>
+        <v>-0.7893097547169811</v>
       </c>
     </row>
     <row r="117" spans="2:10">
       <c r="B117">
-        <v>383.6772162348531</v>
+        <v>10015.63772801498</v>
       </c>
       <c r="C117">
-        <v>919.8364919228446</v>
+        <v>8687.466973518596</v>
       </c>
       <c r="D117">
-        <v>-0.2377225252330029</v>
+        <v>-0.3823380732246595</v>
       </c>
       <c r="E117">
-        <v>-0.8545240529506224</v>
+        <v>0.9073961925451423</v>
       </c>
       <c r="F117">
-        <v>0.4582123743009746</v>
+        <v>0.4095456826974813</v>
       </c>
       <c r="G117">
-        <v>447.7109987350764</v>
+        <v>9064.326304531689</v>
       </c>
       <c r="H117">
-        <v>799.4470828824295</v>
+        <v>12010.66991580404</v>
       </c>
       <c r="I117">
-        <v>0.5176943349573668</v>
+        <v>2.73949864549125</v>
       </c>
       <c r="J117">
-        <v>-0.2314816666666666</v>
+        <v>-0.3946548773584905</v>
       </c>
     </row>
     <row r="118" spans="2:10">
       <c r="B118">
-        <v>409.756420754357</v>
+        <v>10332.41723916535</v>
       </c>
       <c r="C118">
-        <v>884.9854687146411</v>
+        <v>9007.923223431177</v>
       </c>
       <c r="D118">
-        <v>-0.7325091259963323</v>
+        <v>-1.257003189775697</v>
       </c>
       <c r="E118">
-        <v>-0.8806080873904627</v>
+        <v>0.910960695302689</v>
       </c>
       <c r="F118">
-        <v>0.4524422859559797</v>
+        <v>0.4508253764532451</v>
       </c>
       <c r="G118">
-        <v>456.7626960851399</v>
+        <v>8968.084120557391</v>
       </c>
       <c r="H118">
-        <v>804.6020637780557</v>
+        <v>12051.59822596516</v>
       </c>
       <c r="I118">
-        <v>0.4713981544018113</v>
+        <v>2.660568025208231</v>
       </c>
       <c r="J118">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="119" spans="2:10">
       <c r="B119">
-        <v>504.5163534345793</v>
+        <v>10227.80627261759</v>
       </c>
       <c r="C119">
-        <v>870.1431969306534</v>
+        <v>9617.117221653976</v>
       </c>
       <c r="D119">
-        <v>-0.6904576672119273</v>
+        <v>-1.183535641618903</v>
       </c>
       <c r="E119">
-        <v>-0.9195231073960729</v>
+        <v>0.8607268800928751</v>
       </c>
       <c r="F119">
-        <v>0.3924545074129666</v>
+        <v>0.5310112061348583</v>
       </c>
       <c r="G119">
-        <v>465.463229675589</v>
+        <v>8881.163442193241</v>
       </c>
       <c r="H119">
-        <v>809.0369525517282</v>
+        <v>12096.96333436947</v>
       </c>
       <c r="I119">
-        <v>0.4279954807907002</v>
+        <v>2.58657053169408</v>
       </c>
       <c r="J119">
-        <v>-0.6944427777777779</v>
+        <v>-1.183959896226415</v>
       </c>
     </row>
     <row r="120" spans="2:10">
       <c r="B120">
-        <v>502.2312785324303</v>
+        <v>10639.7319733961</v>
       </c>
       <c r="C120">
-        <v>856.6914670113355</v>
+        <v>9369.395893381308</v>
       </c>
       <c r="D120">
-        <v>-0.6360294538763731</v>
+        <v>-1.110170921886453</v>
       </c>
       <c r="E120">
-        <v>-0.9301664067010615</v>
+        <v>0.8042922863159792</v>
       </c>
       <c r="F120">
-        <v>0.3685295064188863</v>
+        <v>0.5919150656366613</v>
       </c>
       <c r="G120">
-        <v>473.7556758462068</v>
+        <v>8803.389743312475</v>
       </c>
       <c r="H120">
-        <v>812.8199425490028</v>
+        <v>12145.18586962161</v>
       </c>
       <c r="I120">
-        <v>0.3874862794018112</v>
+        <v>2.517506164948797</v>
       </c>
       <c r="J120">
-        <v>-0.6481472222222223</v>
+        <v>-1.105029867924528</v>
       </c>
     </row>
     <row r="121" spans="2:10">
       <c r="B121">
-        <v>529.3153576105584</v>
+        <v>11287.80976236631</v>
       </c>
       <c r="C121">
-        <v>865.6242000915187</v>
+        <v>10061.36566951629</v>
       </c>
       <c r="D121">
-        <v>-0.6038637775753095</v>
+        <v>-1.032929560272551</v>
       </c>
       <c r="E121">
-        <v>-0.9190609353245093</v>
+        <v>0.7592425324047717</v>
       </c>
       <c r="F121">
-        <v>0.344291868350438</v>
+        <v>0.6351770756914112</v>
       </c>
       <c r="G121">
-        <v>481.591747901347</v>
+        <v>8734.433597150228</v>
       </c>
       <c r="H121">
-        <v>816.0179962625627</v>
+        <v>12194.84093706695</v>
       </c>
       <c r="I121">
-        <v>0.3498705849573668</v>
+        <v>2.453374924972382</v>
       </c>
       <c r="J121">
-        <v>-0.6018511111111111</v>
+        <v>-1.026099839622642</v>
       </c>
     </row>
     <row r="122" spans="2:10">
       <c r="B122">
-        <v>534.2869631792348</v>
+        <v>11396.83770591572</v>
       </c>
       <c r="C122">
-        <v>833.6563787324989</v>
+        <v>10668.85827906652</v>
       </c>
       <c r="D122">
-        <v>-0.5569966596716044</v>
+        <v>-0.9479039441139042</v>
       </c>
       <c r="E122">
-        <v>-0.9689312665057721</v>
+        <v>0.7470347675945882</v>
       </c>
       <c r="F122">
-        <v>0.2900190749280633</v>
+        <v>0.6964565004293365</v>
       </c>
       <c r="G122">
-        <v>488.9309438475595</v>
+        <v>8673.850098044102</v>
       </c>
       <c r="H122">
-        <v>818.6959356033802</v>
+        <v>12244.66142524509</v>
       </c>
       <c r="I122">
-        <v>0.3151483627351446</v>
+        <v>2.394176811764835</v>
       </c>
       <c r="J122">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="123" spans="2:10">
       <c r="B123">
-        <v>548.3080341721592</v>
+        <v>10320.09698952283</v>
       </c>
       <c r="C123">
-        <v>847.4136613417987</v>
+        <v>10904.89428260315</v>
       </c>
       <c r="D123">
-        <v>-0.4884036983140237</v>
+        <v>-0.829256598748042</v>
       </c>
       <c r="E123">
-        <v>-0.9721135101723198</v>
+        <v>0.7057398442538161</v>
       </c>
       <c r="F123">
-        <v>0.2391126179687217</v>
+        <v>0.6796227919638875</v>
       </c>
       <c r="G123">
-        <v>495.430214182146</v>
+        <v>8623.511506790232</v>
       </c>
       <c r="H123">
-        <v>820.814785910002</v>
+        <v>12291.31428348803</v>
       </c>
       <c r="I123">
-        <v>0.2847664182907002</v>
+        <v>2.342378462708231</v>
       </c>
       <c r="J123">
-        <v>-0.4861111111111111</v>
+        <v>-0.8287735849056603</v>
       </c>
     </row>
     <row r="124" spans="2:10">
       <c r="B124">
-        <v>534.2109858625137</v>
+        <v>10315.83711972719</v>
       </c>
       <c r="C124">
-        <v>857.8990327862466</v>
+        <v>11381.56322831541</v>
       </c>
       <c r="D124">
-        <v>-0.4142839768107746</v>
+        <v>-0.7050524495819236</v>
       </c>
       <c r="E124">
-        <v>-0.9588485275377495</v>
+        <v>0.6547812385947425</v>
       </c>
       <c r="F124">
-        <v>0.254204830480918</v>
+        <v>0.7547187346062708</v>
       </c>
       <c r="G124">
-        <v>501.0536163289141</v>
+        <v>8582.492408356462</v>
       </c>
       <c r="H124">
-        <v>822.4608793722175</v>
+        <v>12333.48277711415</v>
       </c>
       <c r="I124">
-        <v>0.2587247516240335</v>
+        <v>2.297979877802571</v>
       </c>
       <c r="J124">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="125" spans="2:10">
       <c r="B125">
-        <v>508.1046256493935</v>
+        <v>9817.767310013909</v>
       </c>
       <c r="C125">
-        <v>873.7064699182667</v>
+        <v>12256.11395315599</v>
       </c>
       <c r="D125">
-        <v>-0.3422923901264504</v>
+        <v>-0.5929758947665108</v>
       </c>
       <c r="E125">
-        <v>-0.9948562598560184</v>
+        <v>0.6330938727824927</v>
       </c>
       <c r="F125">
-        <v>0.2492281149055268</v>
+        <v>0.7789534654644868</v>
       </c>
       <c r="G125">
-        <v>505.7739143455261</v>
+        <v>8549.903183740211</v>
       </c>
       <c r="H125">
-        <v>823.7101369695629</v>
+        <v>12370.10571887513</v>
       </c>
       <c r="I125">
-        <v>0.2370233627351446</v>
+        <v>2.260981057047854</v>
       </c>
       <c r="J125">
-        <v>-0.3472222222222222</v>
+        <v>-0.5919811320754716</v>
       </c>
     </row>
     <row r="126" spans="2:10">
       <c r="B126">
-        <v>482.6546002175105</v>
+        <v>9631.790430572746</v>
       </c>
       <c r="C126">
-        <v>852.0240821387611</v>
+        <v>12273.16542505224</v>
       </c>
       <c r="D126">
-        <v>-0.2856787411225062</v>
+        <v>-0.4704994161794873</v>
       </c>
       <c r="E126">
-        <v>-0.9754909453805237</v>
+        <v>0.6054270264534418</v>
       </c>
       <c r="F126">
-        <v>0.2167368358603085</v>
+        <v>0.773068202821496</v>
       </c>
       <c r="G126">
-        <v>509.5709503810709</v>
+        <v>8524.93340395869</v>
       </c>
       <c r="H126">
-        <v>824.6273645352595</v>
+        <v>12400.34841136811</v>
       </c>
       <c r="I126">
-        <v>0.2196622516240335</v>
+        <v>2.23138200044408</v>
       </c>
       <c r="J126">
-        <v>-0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="127" spans="2:10">
       <c r="B127">
-        <v>503.5777094176337</v>
+        <v>9611.218153998478</v>
       </c>
       <c r="C127">
-        <v>838.7545875082485</v>
+        <v>12963.59179389622</v>
       </c>
       <c r="D127">
-        <v>-0.2143177389022413</v>
+        <v>-0.3672053176085761</v>
       </c>
       <c r="E127">
-        <v>-0.9767265820924199</v>
+        <v>0.6056875768292515</v>
       </c>
       <c r="F127">
-        <v>0.172419878786199</v>
+        <v>0.8119311523273792</v>
       </c>
       <c r="G127">
-        <v>512.4302407141796</v>
+        <v>8506.8855404199</v>
       </c>
       <c r="H127">
-        <v>825.2657434498924</v>
+        <v>12423.57472606586</v>
       </c>
       <c r="I127">
-        <v>0.2066414182907001</v>
+        <v>2.20918270799125</v>
       </c>
       <c r="J127">
-        <v>-0.2083333333333333</v>
+        <v>-0.355188679245283</v>
       </c>
     </row>
     <row r="128" spans="2:10">
       <c r="B128">
-        <v>501.991125938939</v>
+        <v>9427.52233660954</v>
       </c>
       <c r="C128">
-        <v>846.7337762557745</v>
+        <v>13142.67592140308</v>
       </c>
       <c r="D128">
-        <v>-0.1372254867954254</v>
+        <v>-0.2379887372544152</v>
       </c>
       <c r="E128">
-        <v>-0.9585195216995179</v>
+        <v>0.5759525015729784</v>
       </c>
       <c r="F128">
-        <v>0.2072567537370156</v>
+        <v>0.7947430700528961</v>
       </c>
       <c r="G128">
-        <v>514.341814008888</v>
+        <v>8495.200306255856</v>
       </c>
       <c r="H128">
-        <v>825.6664737888769</v>
+        <v>12439.32219857487</v>
       </c>
       <c r="I128">
-        <v>0.1979608627351446</v>
+        <v>2.194383179689364</v>
       </c>
       <c r="J128">
-        <v>-0.1388888888888889</v>
+        <v>-0.2367924528301887</v>
       </c>
     </row>
     <row r="129" spans="2:10">
       <c r="B129">
-        <v>475.3849474187578</v>
+        <v>9686.422347775266</v>
       </c>
       <c r="C129">
-        <v>841.2651917468119</v>
+        <v>13197.73355855488</v>
       </c>
       <c r="D129">
-        <v>-0.06796491056388575</v>
+        <v>-0.1202622304145324</v>
       </c>
       <c r="E129">
-        <v>-1.001317795710413</v>
+        <v>0.5752294572640281</v>
       </c>
       <c r="F129">
-        <v>0.1678130258875723</v>
+        <v>0.8157103842707164</v>
       </c>
       <c r="G129">
-        <v>515.2993039053714</v>
+        <v>8489.474852333615</v>
       </c>
       <c r="H129">
-        <v>825.8585347545583</v>
+        <v>12447.28153738893</v>
       </c>
       <c r="I129">
-        <v>0.1936205849573668</v>
+        <v>2.18698341553842</v>
       </c>
       <c r="J129">
-        <v>-0.06944444444444445</v>
+        <v>-0.1183962264150943</v>
       </c>
     </row>
     <row r="130" spans="2:10">
       <c r="B130">
-        <v>513.0755546107832</v>
+        <v>9202.966033000877</v>
       </c>
       <c r="C130">
-        <v>791.575363703928</v>
+        <v>13031.4149703488</v>
       </c>
       <c r="D130">
-        <v>-0.007877940122020635</v>
+        <v>-0.001375524982299479</v>
       </c>
       <c r="E130">
-        <v>-1.019283238807934</v>
+        <v>0.6105043042436695</v>
       </c>
       <c r="F130">
-        <v>0.2020019257867661</v>
+        <v>0.7979548969451251</v>
       </c>
       <c r="G130">
-        <v>515.2993039053714</v>
+        <v>8489.474852333615</v>
       </c>
       <c r="H130">
-        <v>825.8585347545583</v>
+        <v>12447.28153738893</v>
       </c>
       <c r="I130">
-        <v>0.1936205849573668</v>
+        <v>2.18698341553842</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -4150,927 +4150,927 @@
     </row>
     <row r="131" spans="2:10">
       <c r="B131">
-        <v>506.4812757577195</v>
+        <v>8892.275228510383</v>
       </c>
       <c r="C131">
-        <v>855.3834942616086</v>
+        <v>13147.53081214772</v>
       </c>
       <c r="D131">
-        <v>-0.05478062150001919</v>
+        <v>-0.117463544723248</v>
       </c>
       <c r="E131">
-        <v>-0.9592092596946764</v>
+        <v>0.5617003835540449</v>
       </c>
       <c r="F131">
-        <v>0.2187858904667304</v>
+        <v>0.8329861886065683</v>
       </c>
       <c r="G131">
-        <v>516.2576183785903</v>
+        <v>8483.808451856115</v>
       </c>
       <c r="H131">
-        <v>826.0464381521467</v>
+        <v>12455.28302491321</v>
       </c>
       <c r="I131">
-        <v>0.189280307179589</v>
+        <v>2.179583651387477</v>
       </c>
       <c r="J131">
-        <v>-0.06944444444444445</v>
+        <v>-0.1183962264150943</v>
       </c>
     </row>
     <row r="132" spans="2:10">
       <c r="B132">
-        <v>501.9285458392608</v>
+        <v>9481.417569634268</v>
       </c>
       <c r="C132">
-        <v>857.3495285198759</v>
+        <v>13392.65496975097</v>
       </c>
       <c r="D132">
-        <v>-0.1440065884541602</v>
+        <v>-0.2422347015335274</v>
       </c>
       <c r="E132">
-        <v>-0.9814369579669795</v>
+        <v>0.5355740777365909</v>
       </c>
       <c r="F132">
-        <v>0.1761806837577235</v>
+        <v>0.8411731783655578</v>
       </c>
       <c r="G132">
-        <v>518.1758603730785</v>
+        <v>8472.594378332395</v>
       </c>
       <c r="H132">
-        <v>826.4139227316964</v>
+        <v>12471.36942111918</v>
       </c>
       <c r="I132">
-        <v>0.1805997516240334</v>
+        <v>2.16478412308559</v>
       </c>
       <c r="J132">
-        <v>-0.1388888888888889</v>
+        <v>-0.2367924528301887</v>
       </c>
     </row>
     <row r="133" spans="2:10">
       <c r="B133">
-        <v>485.1726684294218</v>
+        <v>9248.234864172608</v>
       </c>
       <c r="C133">
-        <v>844.2644676012915</v>
+        <v>13675.51730175198</v>
       </c>
       <c r="D133">
-        <v>-0.2064991476963256</v>
+        <v>-0.3494581778578942</v>
       </c>
       <c r="E133">
-        <v>-0.9787888821705711</v>
+        <v>0.5354208262427363</v>
       </c>
       <c r="F133">
-        <v>0.1726603817870215</v>
+        <v>0.861815660488142</v>
       </c>
       <c r="G133">
-        <v>521.0578998532695</v>
+        <v>8456.132203721851</v>
       </c>
       <c r="H133">
-        <v>826.9401520374904</v>
+        <v>12495.74530838192</v>
       </c>
       <c r="I133">
-        <v>0.1675789182907001</v>
+        <v>2.14258483063276</v>
       </c>
       <c r="J133">
-        <v>-0.2083333333333333</v>
+        <v>-0.355188679245283</v>
       </c>
     </row>
     <row r="134" spans="2:10">
       <c r="B134">
-        <v>484.7380687148145</v>
+        <v>8959.840568991045</v>
       </c>
       <c r="C134">
-        <v>821.960693386043</v>
+        <v>13571.18813368167</v>
       </c>
       <c r="D134">
-        <v>-0.2833457031207136</v>
+        <v>-0.4796048341308203</v>
       </c>
       <c r="E134">
-        <v>-0.996239340213926</v>
+        <v>0.4993968791663781</v>
       </c>
       <c r="F134">
-        <v>0.1299453071807665</v>
+        <v>0.8443441272912364</v>
       </c>
       <c r="G134">
-        <v>524.9094290807375</v>
+        <v>8434.909489827489</v>
       </c>
       <c r="H134">
-        <v>827.5916976402386</v>
+        <v>12528.7257081145</v>
       </c>
       <c r="I134">
-        <v>0.150217807179589</v>
+        <v>2.112985774028987</v>
       </c>
       <c r="J134">
-        <v>-0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="135" spans="2:10">
       <c r="B135">
-        <v>497.2797764451528</v>
+        <v>8259.089997759354</v>
       </c>
       <c r="C135">
-        <v>844.1793302849046</v>
+        <v>13504.34123126341</v>
       </c>
       <c r="D135">
-        <v>-0.3429029130418503</v>
+        <v>-0.5943627844435307</v>
       </c>
       <c r="E135">
-        <v>-1.017590962070559</v>
+        <v>0.4773717541638492</v>
       </c>
       <c r="F135">
-        <v>0.1281565110000731</v>
+        <v>0.8534767513595745</v>
       </c>
       <c r="G135">
-        <v>529.7372538160134</v>
+        <v>8409.612775158796</v>
       </c>
       <c r="H135">
-        <v>828.3224275736711</v>
+        <v>12570.71825092018</v>
       </c>
       <c r="I135">
-        <v>0.1285164182907001</v>
+        <v>2.07598695327427</v>
       </c>
       <c r="J135">
-        <v>-0.3472222222222222</v>
+        <v>-0.5919811320754716</v>
       </c>
     </row>
     <row r="136" spans="2:10">
       <c r="B136">
-        <v>479.2022580170555</v>
+        <v>8294.7349764756</v>
       </c>
       <c r="C136">
-        <v>815.0046633428843</v>
+        <v>13218.77996556743</v>
       </c>
       <c r="D136">
-        <v>-0.4144803478561722</v>
+        <v>-0.7131452664893184</v>
       </c>
       <c r="E136">
-        <v>-1.003827373585777</v>
+        <v>0.4201565143299131</v>
       </c>
       <c r="F136">
-        <v>0.1062263466084768</v>
+        <v>0.924144261906536</v>
       </c>
       <c r="G136">
-        <v>535.54830728437</v>
+        <v>8381.141476720517</v>
       </c>
       <c r="H136">
-        <v>829.0733822850395</v>
+        <v>12622.19769785052</v>
       </c>
       <c r="I136">
-        <v>0.1024747516240334</v>
+        <v>2.031588368368609</v>
       </c>
       <c r="J136">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="137" spans="2:10">
       <c r="B137">
-        <v>449.4728846633637</v>
+        <v>7968.392168563554</v>
       </c>
       <c r="C137">
-        <v>842.7721681832776</v>
+        <v>12833.50726291494</v>
       </c>
       <c r="D137">
-        <v>-0.4931276589868704</v>
+        <v>-0.8287576054091433</v>
       </c>
       <c r="E137">
-        <v>-0.9984159859546624</v>
+        <v>0.3911632012917268</v>
       </c>
       <c r="F137">
-        <v>0.09692461397969285</v>
+        <v>0.9323800241896703</v>
       </c>
       <c r="G137">
-        <v>542.3483838371586</v>
+        <v>8350.623369647356</v>
       </c>
       <c r="H137">
-        <v>829.7726679063137</v>
+        <v>12683.6721485787</v>
       </c>
       <c r="I137">
-        <v>0.07209280717958898</v>
+        <v>1.979790019312005</v>
       </c>
       <c r="J137">
-        <v>-0.4861111111111111</v>
+        <v>-0.8287735849056603</v>
       </c>
     </row>
     <row r="138" spans="2:10">
       <c r="B138">
-        <v>444.3777646289206</v>
+        <v>7871.050008317049</v>
       </c>
       <c r="C138">
-        <v>820.9563800926028</v>
+        <v>12708.43224824817</v>
       </c>
       <c r="D138">
-        <v>-0.56695917548071</v>
+        <v>-0.9407399731960679</v>
       </c>
       <c r="E138">
-        <v>-1.034285302995088</v>
+        <v>0.3221529477364509</v>
       </c>
       <c r="F138">
-        <v>0.06536167202225124</v>
+        <v>0.9183035589111181</v>
       </c>
       <c r="G138">
-        <v>550.1405903911432</v>
+        <v>8319.42985670597</v>
       </c>
       <c r="H138">
-        <v>830.3354052074048</v>
+        <v>12755.64023981798</v>
       </c>
       <c r="I138">
-        <v>0.03737058495736675</v>
+        <v>1.920591906104458</v>
       </c>
       <c r="J138">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="139" spans="2:10">
       <c r="B139">
-        <v>465.0458813027461</v>
+        <v>7419.166562081001</v>
       </c>
       <c r="C139">
-        <v>813.197129163227</v>
+        <v>12291.72705076994</v>
       </c>
       <c r="D139">
-        <v>-0.5602445038856922</v>
+        <v>-0.9515762519674392</v>
       </c>
       <c r="E139">
-        <v>-1.000597709347132</v>
+        <v>0.2994326212181311</v>
       </c>
       <c r="F139">
-        <v>-0.0009903660812727029</v>
+        <v>0.9893078025790604</v>
       </c>
       <c r="G139">
-        <v>557.9476357110814</v>
+        <v>8292.548872630496</v>
       </c>
       <c r="H139">
-        <v>830.6272949510261</v>
+        <v>12829.32778355086</v>
       </c>
       <c r="I139">
-        <v>0.00264836273514453</v>
+        <v>1.861393792896911</v>
       </c>
       <c r="J139">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="140" spans="2:10">
       <c r="B140">
-        <v>441.0021267886254</v>
+        <v>7076.812380564314</v>
       </c>
       <c r="C140">
-        <v>818.154491091214</v>
+        <v>12307.49254642025</v>
       </c>
       <c r="D140">
-        <v>-0.5680720004338985</v>
+        <v>-0.9537442281537206</v>
       </c>
       <c r="E140">
-        <v>-1.019099712997427</v>
+        <v>0.2348974271416399</v>
       </c>
       <c r="F140">
-        <v>-0.03800432199074823</v>
+        <v>0.9876685056670026</v>
       </c>
       <c r="G140">
-        <v>565.7601083133428</v>
+        <v>8270.074592080859</v>
       </c>
       <c r="H140">
-        <v>830.6479852607081</v>
+        <v>12904.47662332917</v>
       </c>
       <c r="I140">
-        <v>-0.03207385948707769</v>
+        <v>1.802195679689364</v>
       </c>
       <c r="J140">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="141" spans="2:10">
       <c r="B141">
-        <v>429.8341258339127</v>
+        <v>7237.13685614397</v>
       </c>
       <c r="C141">
-        <v>853.6593489070799</v>
+        <v>12237.6717795966</v>
       </c>
       <c r="D141">
-        <v>-0.5594599110993272</v>
+        <v>-0.9522482865098391</v>
       </c>
       <c r="E141">
-        <v>-1.006199231153758</v>
+        <v>0.1627217316086171</v>
       </c>
       <c r="F141">
-        <v>-0.06848790939944727</v>
+        <v>0.9960031323388637</v>
       </c>
       <c r="G141">
-        <v>573.5685901716454</v>
+        <v>8252.085751301309</v>
       </c>
       <c r="H141">
-        <v>830.3974511940426</v>
+        <v>12980.82348320996</v>
       </c>
       <c r="I141">
-        <v>-0.06679608170929992</v>
+        <v>1.742997566481816</v>
       </c>
       <c r="J141">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="142" spans="2:10">
       <c r="B142">
-        <v>426.402145277373</v>
+        <v>7195.116515732604</v>
       </c>
       <c r="C142">
-        <v>862.380586516881</v>
+        <v>11884.17069409735</v>
       </c>
       <c r="D142">
-        <v>-0.5623383085410613</v>
+        <v>-0.9442218433767841</v>
       </c>
       <c r="E142">
-        <v>-0.9666861197097381</v>
+        <v>0.1472695633481198</v>
       </c>
       <c r="F142">
-        <v>-0.08825438481174031</v>
+        <v>1.004989620855607</v>
       </c>
       <c r="G142">
-        <v>581.3636680705951</v>
+        <v>8238.645372276389</v>
       </c>
       <c r="H142">
-        <v>829.875994772751</v>
+        <v>13058.10089011468</v>
       </c>
       <c r="I142">
-        <v>-0.1015183039315221</v>
+        <v>1.683799453274269</v>
       </c>
       <c r="J142">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="143" spans="2:10">
       <c r="B143">
-        <v>434.7174477768963</v>
+        <v>6891.988250439035</v>
       </c>
       <c r="C143">
-        <v>836.0077099135625</v>
+        <v>11744.22607909597</v>
       </c>
       <c r="D143">
-        <v>-0.5592604130860317</v>
+        <v>-0.9470128242033724</v>
       </c>
       <c r="E143">
-        <v>-0.9993608650813479</v>
+        <v>0.05389638265414795</v>
       </c>
       <c r="F143">
-        <v>-0.1169010260129374</v>
+        <v>1.00057032807282</v>
       </c>
       <c r="G143">
-        <v>589.1359449534262</v>
+        <v>8229.800541940132</v>
       </c>
       <c r="H143">
-        <v>829.084244618594</v>
+        <v>13136.03811089251</v>
       </c>
       <c r="I143">
-        <v>-0.1362405261537444</v>
+        <v>1.624601340066722</v>
       </c>
       <c r="J143">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="144" spans="2:10">
       <c r="B144">
-        <v>392.5349163806949</v>
+        <v>7142.550644848268</v>
       </c>
       <c r="C144">
-        <v>829.5455141901294</v>
+        <v>11945.29135482493</v>
       </c>
       <c r="D144">
-        <v>-0.5526261769635497</v>
+        <v>-0.9447956321514867</v>
       </c>
       <c r="E144">
-        <v>-0.9652776573158625</v>
+        <v>-0.0216862155334728</v>
       </c>
       <c r="F144">
-        <v>-0.1655386242226538</v>
+        <v>1.002503773530714</v>
       </c>
       <c r="G144">
-        <v>596.8760512502625</v>
+        <v>8225.582247212016</v>
       </c>
       <c r="H144">
-        <v>828.0231551955599</v>
+        <v>13214.36210080516</v>
       </c>
       <c r="I144">
-        <v>-0.1709627483759666</v>
+        <v>1.565403226859175</v>
       </c>
       <c r="J144">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="145" spans="2:10">
       <c r="B145">
-        <v>401.0574509084965</v>
+        <v>6436.803212975379</v>
       </c>
       <c r="C145">
-        <v>834.3262225141599</v>
+        <v>11879.09322223718</v>
       </c>
       <c r="D145">
-        <v>-0.5535225541413482</v>
+        <v>-0.949365224215403</v>
       </c>
       <c r="E145">
-        <v>-0.9843848108117169</v>
+        <v>-0.07430422176584404</v>
       </c>
       <c r="F145">
-        <v>-0.2058566871978869</v>
+        <v>0.9781834056967078</v>
       </c>
       <c r="G145">
-        <v>604.5746561732419</v>
+        <v>8226.005266437594</v>
       </c>
       <c r="H145">
-        <v>826.6940056592482</v>
+        <v>13292.79846010992</v>
       </c>
       <c r="I145">
-        <v>-0.2056849705981888</v>
+        <v>1.506205113651628</v>
       </c>
       <c r="J145">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="146" spans="2:10">
       <c r="B146">
-        <v>419.1428042295591</v>
+        <v>6724.2560781019</v>
       </c>
       <c r="C146">
-        <v>867.5160401454434</v>
+        <v>11947.65047591375</v>
       </c>
       <c r="D146">
-        <v>-0.5590491444437533</v>
+        <v>-0.9518135980227235</v>
       </c>
       <c r="E146">
-        <v>-0.9765572327816653</v>
+        <v>-0.1217843656517638</v>
       </c>
       <c r="F146">
-        <v>-0.2115144320969427</v>
+        <v>0.974610903869735</v>
       </c>
       <c r="G146">
-        <v>612.2224789648895</v>
+        <v>8231.068117614141</v>
       </c>
       <c r="H146">
-        <v>825.098398314832</v>
+        <v>13371.07239538989</v>
       </c>
       <c r="I146">
-        <v>-0.240407192820411</v>
+        <v>1.44700700044408</v>
       </c>
       <c r="J146">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="147" spans="2:10">
       <c r="B147">
-        <v>384.9434907233926</v>
+        <v>6584.890330398463</v>
       </c>
       <c r="C147">
-        <v>841.7817500939087</v>
+        <v>11811.60967407521</v>
       </c>
       <c r="D147">
-        <v>-0.5546936486159775</v>
+        <v>-0.9387974528614272</v>
       </c>
       <c r="E147">
-        <v>-0.9824813169186714</v>
+        <v>-0.1926906359789835</v>
       </c>
       <c r="F147">
-        <v>-0.2790361442337999</v>
+        <v>0.9767424163665583</v>
       </c>
       <c r="G147">
-        <v>619.8103000861786</v>
+        <v>8240.753063582684</v>
       </c>
       <c r="H147">
-        <v>823.2382566854609</v>
+        <v>13448.90968226345</v>
       </c>
       <c r="I147">
-        <v>-0.2751294150426332</v>
+        <v>1.387808887236533</v>
       </c>
       <c r="J147">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="148" spans="2:10">
       <c r="B148">
-        <v>418.4034618965011</v>
+        <v>6381.790254271727</v>
       </c>
       <c r="C148">
-        <v>823.0294119874677</v>
+        <v>12107.5005696169</v>
       </c>
       <c r="D148">
-        <v>-0.5515348007259027</v>
+        <v>-0.9360799838883382</v>
       </c>
       <c r="E148">
-        <v>-0.9267085852457166</v>
+        <v>-0.2481321558002631</v>
       </c>
       <c r="F148">
-        <v>-0.3093828602809772</v>
+        <v>0.9822509664787114</v>
       </c>
       <c r="G148">
-        <v>627.3289723307914</v>
+        <v>8255.026174168257</v>
       </c>
       <c r="H148">
-        <v>821.1158231934314</v>
+        <v>13526.03762610005</v>
       </c>
       <c r="I148">
-        <v>-0.3098516372648554</v>
+        <v>1.328610774028986</v>
       </c>
       <c r="J148">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="149" spans="2:10">
       <c r="B149">
-        <v>394.5952888114291</v>
+        <v>6957.766660241386</v>
       </c>
       <c r="C149">
-        <v>895.5283083619682</v>
+        <v>12471.05298283605</v>
       </c>
       <c r="D149">
-        <v>-0.5570289823690738</v>
+        <v>-0.9453002324958834</v>
       </c>
       <c r="E149">
-        <v>-0.9199315196640425</v>
+        <v>-0.3315782141323965</v>
       </c>
       <c r="F149">
-        <v>-0.329155842060201</v>
+        <v>0.9632612923251883</v>
       </c>
       <c r="G149">
-        <v>634.7694318521827</v>
+        <v>8273.837445050642</v>
       </c>
       <c r="H149">
-        <v>818.7336564569208</v>
+        <v>13602.18601737682</v>
       </c>
       <c r="I149">
-        <v>-0.3445738594870776</v>
+        <v>1.269412660821439</v>
       </c>
       <c r="J149">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="150" spans="2:10">
       <c r="B150">
-        <v>405.8274036297531</v>
+        <v>6810.153313864332</v>
       </c>
       <c r="C150">
-        <v>884.5251521248907</v>
+        <v>12283.93474925756</v>
       </c>
       <c r="D150">
-        <v>-0.5535097372643332</v>
+        <v>-0.9450722026957931</v>
       </c>
       <c r="E150">
-        <v>-0.9043352377602653</v>
+        <v>-0.3502743629829338</v>
       </c>
       <c r="F150">
-        <v>-0.3552370656199734</v>
+        <v>0.8938341154377107</v>
       </c>
       <c r="G150">
-        <v>642.1227090901516</v>
+        <v>8297.120972949171</v>
       </c>
       <c r="H150">
-        <v>816.0946282055434</v>
+        <v>13677.08807832876</v>
       </c>
       <c r="I150">
-        <v>-0.3792960817092998</v>
+        <v>1.210214547613892</v>
       </c>
       <c r="J150">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="151" spans="2:10">
       <c r="B151">
-        <v>370.3570570757819</v>
+        <v>6747.521541013503</v>
       </c>
       <c r="C151">
-        <v>861.0766048855905</v>
+        <v>12811.4209173044</v>
       </c>
       <c r="D151">
-        <v>-0.5523764826584432</v>
+        <v>-0.9421675556297806</v>
       </c>
       <c r="E151">
-        <v>-0.9404638674223814</v>
+        <v>-0.4072974195122748</v>
       </c>
       <c r="F151">
-        <v>-0.4003399368791419</v>
+        <v>0.9173838122123292</v>
       </c>
       <c r="G151">
-        <v>649.3799395837506</v>
+        <v>8324.795186507845</v>
       </c>
       <c r="H151">
-        <v>813.201919818447</v>
+        <v>13750.48139757622</v>
       </c>
       <c r="I151">
-        <v>-0.4140183039315221</v>
+        <v>1.151016434406344</v>
       </c>
       <c r="J151">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="152" spans="2:10">
       <c r="B152">
-        <v>350.1275167599384</v>
+        <v>6634.938558759845</v>
       </c>
       <c r="C152">
-        <v>905.3328043263589</v>
+        <v>13081.51486945267</v>
       </c>
       <c r="D152">
-        <v>-0.5587741513112727</v>
+        <v>-0.9495653525007661</v>
       </c>
       <c r="E152">
-        <v>-0.9126137027907094</v>
+        <v>-0.4640304556188732</v>
       </c>
       <c r="F152">
-        <v>-0.4203095755444646</v>
+        <v>0.877609883574308</v>
       </c>
       <c r="G152">
-        <v>656.5323746574957</v>
+        <v>8356.763132071866</v>
       </c>
       <c r="H152">
-        <v>810.0590184891238</v>
+        <v>13822.10884945513</v>
       </c>
       <c r="I152">
-        <v>-0.4487405261537443</v>
+        <v>1.091818321198797</v>
       </c>
       <c r="J152">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="153" spans="2:10">
       <c r="B153">
-        <v>347.3561334972826</v>
+        <v>6856.450521207505</v>
       </c>
       <c r="C153">
-        <v>958.0887584568242</v>
+        <v>13664.71161419252</v>
       </c>
       <c r="D153">
-        <v>-0.5611372086083469</v>
+        <v>-0.9507757675312675</v>
       </c>
       <c r="E153">
-        <v>-0.9098349257600161</v>
+        <v>-0.5088404424321188</v>
       </c>
       <c r="F153">
-        <v>-0.4675702104744353</v>
+        <v>0.8417174999915148</v>
       </c>
       <c r="G153">
-        <v>663.5713919679964</v>
+        <v>8392.912813354435</v>
       </c>
       <c r="H153">
-        <v>806.669713021558</v>
+        <v>13891.71949482937</v>
       </c>
       <c r="I153">
-        <v>-0.4834627483759665</v>
+        <v>1.03262020799125</v>
       </c>
       <c r="J153">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="154" spans="2:10">
       <c r="B154">
-        <v>379.7947799900606</v>
+        <v>7232.258743196984</v>
       </c>
       <c r="C154">
-        <v>918.5693297909691</v>
+        <v>13819.81247113358</v>
       </c>
       <c r="D154">
-        <v>-0.5661956937808368</v>
+        <v>-0.9511567104270965</v>
       </c>
       <c r="E154">
-        <v>-0.8637629088348011</v>
+        <v>-0.5384617502960896</v>
       </c>
       <c r="F154">
-        <v>-0.481238121096321</v>
+        <v>0.7624330407301875</v>
       </c>
       <c r="G154">
-        <v>670.4885058982906</v>
+        <v>8433.117583803785</v>
       </c>
       <c r="H154">
-        <v>803.0380892627787</v>
+        <v>13959.06946022925</v>
       </c>
       <c r="I154">
-        <v>-0.5181849705981887</v>
+        <v>0.9734220947837029</v>
       </c>
       <c r="J154">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="155" spans="2:10">
       <c r="B155">
-        <v>388.9969259969854</v>
+        <v>7370.494491405863</v>
       </c>
       <c r="C155">
-        <v>955.1074595074339</v>
+        <v>14450.59880313898</v>
       </c>
       <c r="D155">
-        <v>-0.484803860368493</v>
+        <v>-0.8206641539415327</v>
       </c>
       <c r="E155">
-        <v>-0.8670516434150868</v>
+        <v>-0.6636638838527831</v>
       </c>
       <c r="F155">
-        <v>-0.5640148664419116</v>
+        <v>0.7853839952499072</v>
       </c>
       <c r="G155">
-        <v>676.427018801221</v>
+        <v>8471.72171448436</v>
       </c>
       <c r="H155">
-        <v>799.6522206880057</v>
+        <v>14015.81612573532</v>
       </c>
       <c r="I155">
-        <v>-0.5485669150426331</v>
+        <v>0.9216237457270992</v>
       </c>
       <c r="J155">
-        <v>-0.4861111111111111</v>
+        <v>-0.8287735849056603</v>
       </c>
     </row>
     <row r="156" spans="2:10">
       <c r="B156">
-        <v>387.718413437914</v>
+        <v>7535.007900390778</v>
       </c>
       <c r="C156">
-        <v>943.7407152211239</v>
+        <v>15059.01648522059</v>
       </c>
       <c r="D156">
-        <v>-0.4130088273839136</v>
+        <v>-0.7117077666537079</v>
       </c>
       <c r="E156">
-        <v>-0.8390538334912732</v>
+        <v>-0.6468740508744016</v>
       </c>
       <c r="F156">
-        <v>-0.5562205515145071</v>
+        <v>0.7289260321071985</v>
       </c>
       <c r="G156">
-        <v>681.4266635370401</v>
+        <v>8507.284934046354</v>
       </c>
       <c r="H156">
-        <v>796.5967619816539</v>
+        <v>14062.67768466586</v>
       </c>
       <c r="I156">
-        <v>-0.5746085817092997</v>
+        <v>0.8772251608214388</v>
       </c>
       <c r="J156">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="157" spans="2:10">
       <c r="B157">
-        <v>343.735316622736</v>
+        <v>7890.35250977162</v>
       </c>
       <c r="C157">
-        <v>953.161682677763</v>
+        <v>15429.05995637136</v>
       </c>
       <c r="D157">
-        <v>-0.3438496793103366</v>
+        <v>-0.5988290033772499</v>
       </c>
       <c r="E157">
-        <v>-0.8583601781138336</v>
+        <v>-0.6839377895222138</v>
       </c>
       <c r="F157">
-        <v>-0.5579386162892735</v>
+        <v>0.7531024304318967</v>
       </c>
       <c r="G157">
-        <v>685.5253212763654</v>
+        <v>8538.624998226351</v>
       </c>
       <c r="H157">
-        <v>793.9429227540394</v>
+        <v>14100.37513552809</v>
       </c>
       <c r="I157">
-        <v>-0.5963099705981886</v>
+        <v>0.8402263400667218</v>
       </c>
       <c r="J157">
-        <v>-0.3472222222222222</v>
+        <v>-0.5919811320754716</v>
       </c>
     </row>
     <row r="158" spans="2:10">
       <c r="B158">
-        <v>394.983513868627</v>
+        <v>7827.585208474039</v>
       </c>
       <c r="C158">
-        <v>965.4700506317345</v>
+        <v>15865.2648000601</v>
       </c>
       <c r="D158">
-        <v>-0.277991306855837</v>
+        <v>-0.4758770709983797</v>
       </c>
       <c r="E158">
-        <v>-0.8207195683814205</v>
+        <v>-0.672017229167174</v>
       </c>
       <c r="F158">
-        <v>-0.561953181238576</v>
+        <v>0.7422990546222987</v>
       </c>
       <c r="G158">
-        <v>688.7574054111324</v>
+        <v>8564.795445227795</v>
       </c>
       <c r="H158">
-        <v>791.7491996155628</v>
+        <v>14129.58503205832</v>
       </c>
       <c r="I158">
-        <v>-0.6136710817092997</v>
+        <v>0.8106272834629482</v>
       </c>
       <c r="J158">
-        <v>-0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="159" spans="2:10">
       <c r="B159">
-        <v>366.1534964915695</v>
+        <v>7627.838922045743</v>
       </c>
       <c r="C159">
-        <v>985.6852321761565</v>
+        <v>16207.94195693791</v>
       </c>
       <c r="D159">
-        <v>-0.2059897665151166</v>
+        <v>-0.3569224607680591</v>
       </c>
       <c r="E159">
-        <v>-0.8212087154389534</v>
+        <v>-0.7085077673217167</v>
       </c>
       <c r="F159">
-        <v>-0.5929448359200095</v>
+        <v>0.7155913034811541</v>
       </c>
       <c r="G159">
-        <v>691.1525405366826</v>
+        <v>8585.063027448996</v>
       </c>
       <c r="H159">
-        <v>790.0620728929922</v>
+        <v>14150.90197798547</v>
       </c>
       <c r="I159">
-        <v>-0.6266919150426331</v>
+        <v>0.7884279910101181</v>
       </c>
       <c r="J159">
-        <v>-0.2083333333333333</v>
+        <v>-0.355188679245283</v>
       </c>
     </row>
     <row r="160" spans="2:10">
       <c r="B160">
-        <v>384.6736435405437</v>
+        <v>8220.046862824991</v>
       </c>
       <c r="C160">
-        <v>1006.430622624089</v>
+        <v>16063.56916229606</v>
       </c>
       <c r="D160">
-        <v>-0.1384776328143295</v>
+        <v>-0.236148170408369</v>
       </c>
       <c r="E160">
-        <v>-0.7853525501373441</v>
+        <v>-0.7441373887524675</v>
       </c>
       <c r="F160">
-        <v>-0.5995993254911914</v>
+        <v>0.742045863639627</v>
       </c>
       <c r="G160">
-        <v>692.7345171467965</v>
+        <v>8598.886874553607</v>
       </c>
       <c r="H160">
-        <v>788.9166265735702</v>
+        <v>14164.80984766846</v>
       </c>
       <c r="I160">
-        <v>-0.6353724705981887</v>
+        <v>0.7736284627082313</v>
       </c>
       <c r="J160">
-        <v>-0.1388888888888889</v>
+        <v>-0.2367924528301887</v>
       </c>
     </row>
     <row r="161" spans="2:10">
       <c r="B161">
-        <v>375.0114528391746</v>
+        <v>8464.268132809009</v>
       </c>
       <c r="C161">
-        <v>1008.7087741833</v>
+        <v>16547.26024891896</v>
       </c>
       <c r="D161">
-        <v>-0.06993331510383224</v>
+        <v>-0.1203547163805797</v>
       </c>
       <c r="E161">
-        <v>-0.8349878052004426</v>
+        <v>-0.7422097460543314</v>
       </c>
       <c r="F161">
-        <v>-0.5962323237086896</v>
+        <v>0.6544313559168008</v>
       </c>
       <c r="G161">
-        <v>693.5205041579776</v>
+        <v>8605.900952372809</v>
       </c>
       <c r="H161">
-        <v>788.3370588599587</v>
+        <v>14171.66073150332</v>
       </c>
       <c r="I161">
-        <v>-0.6397127483759665</v>
+        <v>0.7662286985572879</v>
       </c>
       <c r="J161">
-        <v>-0.06944444444444445</v>
+        <v>-0.1183962264150943</v>
       </c>
     </row>
     <row r="162" spans="2:10">
       <c r="B162">
-        <v>372.319525549321</v>
+        <v>8468.995304524429</v>
       </c>
       <c r="C162">
-        <v>1020.903887768152</v>
+        <v>16413.88819531042</v>
       </c>
       <c r="D162">
-        <v>0.0005902100788425134</v>
+        <v>0.004519318546701564</v>
       </c>
       <c r="E162">
-        <v>-0.7910792118302751</v>
+        <v>-0.6947713002459737</v>
       </c>
       <c r="F162">
-        <v>-0.5976591851700312</v>
+        <v>0.6777106653128632</v>
       </c>
       <c r="G162">
-        <v>693.5205041579776</v>
+        <v>8605.900952372809</v>
       </c>
       <c r="H162">
-        <v>788.3370588599587</v>
+        <v>14171.66073150332</v>
       </c>
       <c r="I162">
-        <v>-0.6397127483759665</v>
+        <v>0.7662286985572879</v>
       </c>
       <c r="J162">
         <v>0</v>
